--- a/datos/semaforo/14noviembre/Historico_Alertas_mapas_al_12_de_noviembre.xlsx
+++ b/datos/semaforo/14noviembre/Historico_Alertas_mapas_al_12_de_noviembre.xlsx
@@ -1162,7 +1162,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,13 +1219,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1341,7 +1334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1395,6 +1388,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1408,30 +1416,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -1461,34 +1451,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1781,7 +1743,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{2CEFEF56-B360-1143-9498-6ACC32941D20}"/>
+              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{2CEFEF56-B360-1143-9498-6ACC32941D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1797,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A31C3F8-AECC-411D-8406-F2CE71802FCA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A31C3F8-AECC-411D-8406-F2CE71802FCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1860,7 @@
           <xdr:cNvPr id="2" name="Imagen 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2101,7 +2063,7 @@
         <xdr:cNvPr id="14" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3322D939-9FF3-4878-8EAB-7CF834AEDEEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3322D939-9FF3-4878-8EAB-7CF834AEDEEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2339,7 @@
           <xdr:cNvPr id="16" name="Imagen 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2583,7 +2545,7 @@
           <xdr:cNvPr id="20" name="Imagen 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2669,7 +2631,7 @@
           <xdr:cNvPr id="25" name="Imagen 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2755,7 +2717,7 @@
           <xdr:cNvPr id="26" name="Imagen 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C27D284D-1CC9-4905-9A0B-8A2A80A387C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3358,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AX15" sqref="AX15"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AQ6" sqref="AQ6:AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,41 +3366,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="M1" s="29" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="M1" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="R1" s="29" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="R1" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="W1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="AB1" s="29" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="AB1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AG1" s="29" t="s">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AG1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
       <c r="AM1" s="22" t="s">
         <v>367</v>
       </c>
@@ -3606,71 +3568,71 @@
         <v>107</v>
       </c>
       <c r="AQ3" s="24">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AR3" s="24">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AS3" s="24">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="H4" s="27" t="s">
+      <c r="C4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="H4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="R4" s="27" t="s">
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="R4" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="W4" s="27" t="s">
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="W4" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AB4" s="27" t="s">
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AB4" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AG4" s="27" t="s">
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AG4" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AL4" s="27" t="s">
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AL4" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AQ4" s="27" t="s">
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AQ4" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
     </row>
     <row r="5" spans="1:46" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3795,10 +3757,10 @@
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="30"/>
+      <c r="A6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="35"/>
       <c r="C6" s="8">
         <v>79.239999999999995</v>
       </c>
@@ -3884,13 +3846,13 @@
       <c r="AN6" s="25">
         <v>0.20545583345297885</v>
       </c>
-      <c r="AQ6" s="35">
+      <c r="AQ6" s="29">
         <v>39.559071469284653</v>
       </c>
-      <c r="AR6" s="32">
+      <c r="AR6" s="29">
         <v>14.462926416690161</v>
       </c>
-      <c r="AS6" s="36">
+      <c r="AS6" s="30">
         <v>0.19537179964014575</v>
       </c>
     </row>
@@ -4003,13 +3965,13 @@
       <c r="AO7" s="12">
         <v>7</v>
       </c>
-      <c r="AQ7" s="33">
+      <c r="AQ7" s="27">
         <v>129.31</v>
       </c>
-      <c r="AR7" s="33">
+      <c r="AR7" s="27">
         <v>12.9</v>
       </c>
-      <c r="AS7" s="37">
+      <c r="AS7" s="31">
         <v>0.71620047973405609</v>
       </c>
       <c r="AT7" s="12">
@@ -4125,13 +4087,13 @@
       <c r="AO8" s="12">
         <v>8.5</v>
       </c>
-      <c r="AQ8" s="33">
+      <c r="AQ8" s="27">
         <v>165.99</v>
       </c>
-      <c r="AR8" s="33">
+      <c r="AR8" s="27">
         <v>19.170000000000002</v>
       </c>
-      <c r="AS8" s="37">
+      <c r="AS8" s="31">
         <v>0.61852251057126284</v>
       </c>
       <c r="AT8" s="12">
@@ -4247,13 +4209,13 @@
       <c r="AO9" s="12">
         <v>9</v>
       </c>
-      <c r="AQ9" s="33">
+      <c r="AQ9" s="27">
         <v>101.24</v>
       </c>
-      <c r="AR9" s="33">
+      <c r="AR9" s="27">
         <v>18.86</v>
       </c>
-      <c r="AS9" s="37">
+      <c r="AS9" s="31">
         <v>0.38350038350038351</v>
       </c>
       <c r="AT9" s="12">
@@ -4369,13 +4331,13 @@
       <c r="AO10" s="15">
         <v>8</v>
       </c>
-      <c r="AQ10" s="34">
+      <c r="AQ10" s="28">
         <v>36.07</v>
       </c>
-      <c r="AR10" s="34">
+      <c r="AR10" s="28">
         <v>13.04</v>
       </c>
-      <c r="AS10" s="37">
+      <c r="AS10" s="31">
         <v>0.1975300159741665</v>
       </c>
       <c r="AT10" s="15">
@@ -4491,13 +4453,13 @@
       <c r="AO11" s="12">
         <v>6</v>
       </c>
-      <c r="AQ11" s="33">
+      <c r="AQ11" s="27">
         <v>55.55</v>
       </c>
-      <c r="AR11" s="33">
+      <c r="AR11" s="27">
         <v>26.8</v>
       </c>
-      <c r="AS11" s="37">
+      <c r="AS11" s="31">
         <v>0.14806155489793429</v>
       </c>
       <c r="AT11" s="12">
@@ -4613,13 +4575,13 @@
       <c r="AO12" s="12">
         <v>8</v>
       </c>
-      <c r="AQ12" s="33">
+      <c r="AQ12" s="27">
         <v>42.72</v>
       </c>
-      <c r="AR12" s="33">
+      <c r="AR12" s="27">
         <v>18.57</v>
       </c>
-      <c r="AS12" s="37">
+      <c r="AS12" s="31">
         <v>0.16431018476680279</v>
       </c>
       <c r="AT12" s="12">
@@ -4735,13 +4697,13 @@
       <c r="AO13" s="12">
         <v>7</v>
       </c>
-      <c r="AQ13" s="33">
+      <c r="AQ13" s="27">
         <v>27.44</v>
       </c>
-      <c r="AR13" s="33">
+      <c r="AR13" s="27">
         <v>15.52</v>
       </c>
-      <c r="AS13" s="37">
+      <c r="AS13" s="31">
         <v>0.12631817370055623</v>
       </c>
       <c r="AT13" s="12">
@@ -4857,13 +4819,13 @@
       <c r="AO14" s="12">
         <v>7.5</v>
       </c>
-      <c r="AQ14" s="33">
+      <c r="AQ14" s="27">
         <v>104.74</v>
       </c>
-      <c r="AR14" s="33">
+      <c r="AR14" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="AS14" s="37">
+      <c r="AS14" s="31">
         <v>0.45076051574744352</v>
       </c>
       <c r="AT14" s="12">
@@ -4979,13 +4941,13 @@
       <c r="AO15" s="12">
         <v>10</v>
       </c>
-      <c r="AQ15" s="33">
+      <c r="AQ15" s="27">
         <v>54.92</v>
       </c>
-      <c r="AR15" s="33">
+      <c r="AR15" s="27">
         <v>17.54</v>
       </c>
-      <c r="AS15" s="37">
+      <c r="AS15" s="31">
         <v>0.2236106715904603</v>
       </c>
       <c r="AT15" s="12">
@@ -5101,13 +5063,13 @@
       <c r="AO16" s="12">
         <v>8</v>
       </c>
-      <c r="AQ16" s="33">
+      <c r="AQ16" s="27">
         <v>47.68</v>
       </c>
-      <c r="AR16" s="33">
+      <c r="AR16" s="27">
         <v>17.32</v>
       </c>
-      <c r="AS16" s="37">
+      <c r="AS16" s="31">
         <v>0.19660944179431658</v>
       </c>
       <c r="AT16" s="12">
@@ -5223,13 +5185,13 @@
       <c r="AO17" s="12">
         <v>9</v>
       </c>
-      <c r="AQ17" s="33">
+      <c r="AQ17" s="27">
         <v>23.45</v>
       </c>
-      <c r="AR17" s="33">
+      <c r="AR17" s="27">
         <v>18</v>
       </c>
-      <c r="AS17" s="37">
+      <c r="AS17" s="31">
         <v>9.3039873168044893E-2</v>
       </c>
       <c r="AT17" s="12">
@@ -5345,13 +5307,13 @@
       <c r="AO18" s="12">
         <v>4</v>
       </c>
-      <c r="AQ18" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="37">
+      <c r="AQ18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="31">
         <v>6.3644102180606052E-2</v>
       </c>
       <c r="AT18" s="12">
@@ -5467,13 +5429,13 @@
       <c r="AO19" s="12">
         <v>7.5</v>
       </c>
-      <c r="AQ19" s="33">
+      <c r="AQ19" s="27">
         <v>74.599999999999994</v>
       </c>
-      <c r="AR19" s="33">
+      <c r="AR19" s="27">
         <v>9.85</v>
       </c>
-      <c r="AS19" s="37">
+      <c r="AS19" s="31">
         <v>0.54095003336051595</v>
       </c>
       <c r="AT19" s="12">
@@ -5589,13 +5551,13 @@
       <c r="AO20" s="12">
         <v>8</v>
       </c>
-      <c r="AQ20" s="33">
+      <c r="AQ20" s="27">
         <v>45.39</v>
       </c>
-      <c r="AR20" s="33">
+      <c r="AR20" s="27">
         <v>14.14</v>
       </c>
-      <c r="AS20" s="37">
+      <c r="AS20" s="31">
         <v>0.22937822048957249</v>
       </c>
       <c r="AT20" s="12">
@@ -5711,13 +5673,13 @@
       <c r="AO21" s="12">
         <v>9</v>
       </c>
-      <c r="AQ21" s="33">
+      <c r="AQ21" s="27">
         <v>51.88</v>
       </c>
-      <c r="AR21" s="33">
+      <c r="AR21" s="27">
         <v>10.53</v>
       </c>
-      <c r="AS21" s="37">
+      <c r="AS21" s="31">
         <v>0.35181640596168889</v>
       </c>
       <c r="AT21" s="12">
@@ -5833,13 +5795,13 @@
       <c r="AO22" s="12">
         <v>7</v>
       </c>
-      <c r="AQ22" s="33">
+      <c r="AQ22" s="27">
         <v>40.6</v>
       </c>
-      <c r="AR22" s="33">
+      <c r="AR22" s="27">
         <v>11.82</v>
       </c>
-      <c r="AS22" s="37">
+      <c r="AS22" s="31">
         <v>0.24541587386230046</v>
       </c>
       <c r="AT22" s="12">
@@ -5955,13 +5917,13 @@
       <c r="AO23" s="12">
         <v>9</v>
       </c>
-      <c r="AQ23" s="33">
+      <c r="AQ23" s="27">
         <v>83.9</v>
       </c>
-      <c r="AR23" s="33">
+      <c r="AR23" s="27">
         <v>17.399999999999999</v>
       </c>
-      <c r="AS23" s="37">
+      <c r="AS23" s="31">
         <v>0.34432995159732743</v>
       </c>
       <c r="AT23" s="12">
@@ -6077,13 +6039,13 @@
       <c r="AO24" s="12">
         <v>8</v>
       </c>
-      <c r="AQ24" s="33">
+      <c r="AQ24" s="27">
         <v>303.69</v>
       </c>
-      <c r="AR24" s="33">
+      <c r="AR24" s="27">
         <v>18.850000000000001</v>
       </c>
-      <c r="AS24" s="37">
+      <c r="AS24" s="31">
         <v>1.1507510303851181</v>
       </c>
       <c r="AT24" s="12">
@@ -6199,13 +6161,13 @@
       <c r="AO25" s="12">
         <v>8</v>
       </c>
-      <c r="AQ25" s="33">
+      <c r="AQ25" s="27">
         <v>31.8</v>
       </c>
-      <c r="AR25" s="33">
+      <c r="AR25" s="27">
         <v>10.26</v>
       </c>
-      <c r="AS25" s="37">
+      <c r="AS25" s="31">
         <v>0.2214927475323436</v>
       </c>
       <c r="AT25" s="12">
@@ -6321,13 +6283,13 @@
       <c r="AO26" s="12">
         <v>7</v>
       </c>
-      <c r="AQ26" s="33">
+      <c r="AQ26" s="27">
         <v>208.84</v>
       </c>
-      <c r="AR26" s="33">
+      <c r="AR26" s="27">
         <v>16.100000000000001</v>
       </c>
-      <c r="AS26" s="37">
+      <c r="AS26" s="31">
         <v>0.92642024934836553</v>
       </c>
       <c r="AT26" s="12">
@@ -6443,13 +6405,13 @@
       <c r="AO27" s="12">
         <v>8</v>
       </c>
-      <c r="AQ27" s="33">
+      <c r="AQ27" s="27">
         <v>76.42</v>
       </c>
-      <c r="AR27" s="33">
+      <c r="AR27" s="27">
         <v>16.670000000000002</v>
       </c>
-      <c r="AS27" s="37">
+      <c r="AS27" s="31">
         <v>0.32752879523991485</v>
       </c>
       <c r="AT27" s="12">
@@ -6565,13 +6527,13 @@
       <c r="AO28" s="12">
         <v>9</v>
       </c>
-      <c r="AQ28" s="33">
+      <c r="AQ28" s="27">
         <v>74.03</v>
       </c>
-      <c r="AR28" s="33">
+      <c r="AR28" s="27">
         <v>14.71</v>
       </c>
-      <c r="AS28" s="37">
+      <c r="AS28" s="31">
         <v>0.35957527814205337</v>
       </c>
       <c r="AT28" s="12">
@@ -6687,13 +6649,13 @@
       <c r="AO29" s="12">
         <v>7</v>
       </c>
-      <c r="AQ29" s="33">
+      <c r="AQ29" s="27">
         <v>29.55</v>
       </c>
-      <c r="AR29" s="33">
+      <c r="AR29" s="27">
         <v>5.26</v>
       </c>
-      <c r="AS29" s="37">
+      <c r="AS29" s="31">
         <v>0.40107657396168661</v>
       </c>
       <c r="AT29" s="12">
@@ -6809,13 +6771,13 @@
       <c r="AO30" s="12">
         <v>9</v>
       </c>
-      <c r="AQ30" s="33">
+      <c r="AQ30" s="27">
         <v>21.43</v>
       </c>
-      <c r="AR30" s="33">
+      <c r="AR30" s="27">
         <v>9.7799999999999994</v>
       </c>
-      <c r="AS30" s="37">
+      <c r="AS30" s="31">
         <v>0.15647376173128011</v>
       </c>
       <c r="AT30" s="12">
@@ -6931,13 +6893,13 @@
       <c r="AO31" s="12">
         <v>8.5</v>
       </c>
-      <c r="AQ31" s="33">
+      <c r="AQ31" s="27">
         <v>72.69</v>
       </c>
-      <c r="AR31" s="33">
+      <c r="AR31" s="27">
         <v>17.98</v>
       </c>
-      <c r="AS31" s="37">
+      <c r="AS31" s="31">
         <v>0.28880350977388958</v>
       </c>
       <c r="AT31" s="12">
@@ -7053,13 +7015,13 @@
       <c r="AO32" s="12">
         <v>7</v>
       </c>
-      <c r="AQ32" s="33">
+      <c r="AQ32" s="27">
         <v>54.85</v>
       </c>
-      <c r="AR32" s="33">
+      <c r="AR32" s="27">
         <v>7.75</v>
       </c>
-      <c r="AS32" s="37">
+      <c r="AS32" s="31">
         <v>0.50567383180774117</v>
       </c>
       <c r="AT32" s="12">
@@ -7175,13 +7137,13 @@
       <c r="AO33" s="12">
         <v>7</v>
       </c>
-      <c r="AQ33" s="33">
+      <c r="AQ33" s="27">
         <v>77.72</v>
       </c>
-      <c r="AR33" s="33">
+      <c r="AR33" s="27">
         <v>11.84</v>
       </c>
-      <c r="AS33" s="37">
+      <c r="AS33" s="31">
         <v>0.46878855169010614</v>
       </c>
       <c r="AT33" s="12">
@@ -7297,13 +7259,13 @@
       <c r="AO34" s="12">
         <v>8.5</v>
       </c>
-      <c r="AQ34" s="33">
+      <c r="AQ34" s="27">
         <v>51.58</v>
       </c>
-      <c r="AR34" s="33">
+      <c r="AR34" s="27">
         <v>10.75</v>
       </c>
-      <c r="AS34" s="37">
+      <c r="AS34" s="31">
         <v>0.34260957980592827</v>
       </c>
       <c r="AT34" s="12">
@@ -7419,13 +7381,13 @@
       <c r="AO35" s="12">
         <v>9</v>
       </c>
-      <c r="AQ35" s="33">
+      <c r="AQ35" s="27">
         <v>134.81</v>
       </c>
-      <c r="AR35" s="33">
+      <c r="AR35" s="27">
         <v>19.12</v>
       </c>
-      <c r="AS35" s="37">
+      <c r="AS35" s="31">
         <v>0.50356282538209218</v>
       </c>
       <c r="AT35" s="12">
@@ -7541,13 +7503,13 @@
       <c r="AO36" s="12">
         <v>8</v>
       </c>
-      <c r="AQ36" s="33">
+      <c r="AQ36" s="27">
         <v>212.45</v>
       </c>
-      <c r="AR36" s="33">
+      <c r="AR36" s="27">
         <v>20.27</v>
       </c>
-      <c r="AS36" s="37">
+      <c r="AS36" s="31">
         <v>0.74863172377512721</v>
       </c>
       <c r="AT36" s="12">
@@ -7663,13 +7625,13 @@
       <c r="AO37" s="12">
         <v>6</v>
       </c>
-      <c r="AQ37" s="33">
+      <c r="AQ37" s="27">
         <v>30.21</v>
       </c>
-      <c r="AR37" s="33">
+      <c r="AR37" s="27">
         <v>10.58</v>
       </c>
-      <c r="AS37" s="37">
+      <c r="AS37" s="31">
         <v>0.20403118538195031</v>
       </c>
       <c r="AT37" s="12">
@@ -7785,13 +7747,13 @@
       <c r="AO38" s="12">
         <v>8</v>
       </c>
-      <c r="AQ38" s="33">
+      <c r="AQ38" s="27">
         <v>117.38</v>
       </c>
-      <c r="AR38" s="33">
+      <c r="AR38" s="27">
         <v>27.03</v>
       </c>
-      <c r="AS38" s="37">
+      <c r="AS38" s="31">
         <v>0.31023091241426726</v>
       </c>
       <c r="AT38" s="12">
@@ -7907,13 +7869,13 @@
       <c r="AO39" s="12">
         <v>7</v>
       </c>
-      <c r="AQ39" s="33">
+      <c r="AQ39" s="27">
         <v>94.92</v>
       </c>
-      <c r="AR39" s="33">
+      <c r="AR39" s="27">
         <v>10.84</v>
       </c>
-      <c r="AS39" s="37">
+      <c r="AS39" s="31">
         <v>0.62526680561484571</v>
       </c>
       <c r="AT39" s="12">
@@ -8029,13 +7991,13 @@
       <c r="AO40" s="12">
         <v>8.5</v>
       </c>
-      <c r="AQ40" s="33">
+      <c r="AQ40" s="27">
         <v>151.9</v>
       </c>
-      <c r="AR40" s="33">
+      <c r="AR40" s="27">
         <v>20.16</v>
       </c>
-      <c r="AS40" s="37">
+      <c r="AS40" s="31">
         <v>0.53834340466731223</v>
       </c>
       <c r="AT40" s="12">
@@ -8151,13 +8113,13 @@
       <c r="AO41" s="12">
         <v>8</v>
       </c>
-      <c r="AQ41" s="33">
+      <c r="AQ41" s="27">
         <v>39.450000000000003</v>
       </c>
-      <c r="AR41" s="33">
+      <c r="AR41" s="27">
         <v>9.43</v>
       </c>
-      <c r="AS41" s="37">
+      <c r="AS41" s="31">
         <v>0.29869924930679231</v>
       </c>
       <c r="AT41" s="12">
@@ -8273,13 +8235,13 @@
       <c r="AO42" s="12">
         <v>5</v>
       </c>
-      <c r="AQ42" s="33">
+      <c r="AQ42" s="27">
         <v>11.33</v>
       </c>
-      <c r="AR42" s="33">
+      <c r="AR42" s="27">
         <v>6.52</v>
       </c>
-      <c r="AS42" s="37">
+      <c r="AS42" s="31">
         <v>0.12412036437421752</v>
       </c>
       <c r="AT42" s="12">
@@ -8395,13 +8357,13 @@
       <c r="AO43" s="12">
         <v>7</v>
       </c>
-      <c r="AQ43" s="33">
+      <c r="AQ43" s="27">
         <v>37.42</v>
       </c>
-      <c r="AR43" s="33">
+      <c r="AR43" s="27">
         <v>7.89</v>
       </c>
-      <c r="AS43" s="37">
+      <c r="AS43" s="31">
         <v>0.33858315424066487</v>
       </c>
       <c r="AT43" s="12">
@@ -8517,13 +8479,13 @@
       <c r="AO44" s="12">
         <v>4.5</v>
       </c>
-      <c r="AQ44" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="37">
+      <c r="AQ44" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="31">
         <v>0.20165639625950835</v>
       </c>
       <c r="AT44" s="12">
@@ -8639,13 +8601,13 @@
       <c r="AO45" s="12">
         <v>8</v>
       </c>
-      <c r="AQ45" s="33">
+      <c r="AQ45" s="27">
         <v>25.19</v>
       </c>
-      <c r="AR45" s="33">
+      <c r="AR45" s="27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AS45" s="37">
+      <c r="AS45" s="31">
         <v>0.36759224508891619</v>
       </c>
       <c r="AT45" s="12">
@@ -8761,13 +8723,13 @@
       <c r="AO46" s="12">
         <v>7</v>
       </c>
-      <c r="AQ46" s="33">
+      <c r="AQ46" s="27">
         <v>24.12</v>
       </c>
-      <c r="AR46" s="33">
+      <c r="AR46" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS46" s="37">
+      <c r="AS46" s="31">
         <v>0.15505478602439529</v>
       </c>
       <c r="AT46" s="12">
@@ -8883,13 +8845,13 @@
       <c r="AO47" s="12">
         <v>4</v>
       </c>
-      <c r="AQ47" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="37">
+      <c r="AQ47" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="31">
         <v>7.9719387755102039E-2</v>
       </c>
       <c r="AT47" s="12">
@@ -9005,13 +8967,13 @@
       <c r="AO48" s="12">
         <v>9</v>
       </c>
-      <c r="AQ48" s="33">
+      <c r="AQ48" s="27">
         <v>91.33</v>
       </c>
-      <c r="AR48" s="33">
+      <c r="AR48" s="27">
         <v>18.100000000000001</v>
       </c>
-      <c r="AS48" s="37">
+      <c r="AS48" s="31">
         <v>0.36037930396759243</v>
       </c>
       <c r="AT48" s="12">
@@ -9127,13 +9089,13 @@
       <c r="AO49" s="12">
         <v>8</v>
       </c>
-      <c r="AQ49" s="33">
+      <c r="AQ49" s="27">
         <v>3.03</v>
       </c>
-      <c r="AR49" s="33">
+      <c r="AR49" s="27">
         <v>3.85</v>
       </c>
-      <c r="AS49" s="37">
+      <c r="AS49" s="31">
         <v>5.6340225620934298E-2</v>
       </c>
       <c r="AT49" s="12">
@@ -9249,13 +9211,13 @@
       <c r="AO50" s="12">
         <v>5</v>
       </c>
-      <c r="AQ50" s="33">
+      <c r="AQ50" s="27">
         <v>10.86</v>
       </c>
-      <c r="AR50" s="33">
+      <c r="AR50" s="27">
         <v>13.33</v>
       </c>
-      <c r="AS50" s="37">
+      <c r="AS50" s="31">
         <v>5.8164694495758631E-2</v>
       </c>
       <c r="AT50" s="12">
@@ -9371,13 +9333,13 @@
       <c r="AO51" s="12">
         <v>9</v>
       </c>
-      <c r="AQ51" s="33">
+      <c r="AQ51" s="27">
         <v>18.91</v>
       </c>
-      <c r="AR51" s="33">
+      <c r="AR51" s="27">
         <v>15.94</v>
       </c>
-      <c r="AS51" s="37">
+      <c r="AS51" s="31">
         <v>8.4721205840606259E-2</v>
       </c>
       <c r="AT51" s="12">
@@ -9493,13 +9455,13 @@
       <c r="AO52" s="12">
         <v>10</v>
       </c>
-      <c r="AQ52" s="33">
+      <c r="AQ52" s="27">
         <v>30.22</v>
       </c>
-      <c r="AR52" s="33">
+      <c r="AR52" s="27">
         <v>53.85</v>
       </c>
-      <c r="AS52" s="37">
+      <c r="AS52" s="31">
         <v>4.0083373416706751E-2</v>
       </c>
       <c r="AT52" s="12">
@@ -9615,13 +9577,13 @@
       <c r="AO53" s="12">
         <v>9</v>
       </c>
-      <c r="AQ53" s="33">
+      <c r="AQ53" s="27">
         <v>9.18</v>
       </c>
-      <c r="AR53" s="33">
+      <c r="AR53" s="27">
         <v>10.99</v>
       </c>
-      <c r="AS53" s="37">
+      <c r="AS53" s="31">
         <v>5.9691623887669548E-2</v>
       </c>
       <c r="AT53" s="12">
@@ -9737,13 +9699,13 @@
       <c r="AO54" s="12">
         <v>7</v>
       </c>
-      <c r="AQ54" s="33">
+      <c r="AQ54" s="27">
         <v>8.6300000000000008</v>
       </c>
-      <c r="AR54" s="33">
+      <c r="AR54" s="27">
         <v>10.71</v>
       </c>
-      <c r="AS54" s="37">
+      <c r="AS54" s="31">
         <v>5.7504312823461759E-2</v>
       </c>
       <c r="AT54" s="12">
@@ -9859,13 +9821,13 @@
       <c r="AO55" s="12">
         <v>4</v>
       </c>
-      <c r="AQ55" s="33">
+      <c r="AQ55" s="27">
         <v>9.09</v>
       </c>
-      <c r="AR55" s="33">
+      <c r="AR55" s="27">
         <v>3.45</v>
       </c>
-      <c r="AS55" s="37">
+      <c r="AS55" s="31">
         <v>0.1883801901990334</v>
       </c>
       <c r="AT55" s="12">
@@ -9981,13 +9943,13 @@
       <c r="AO56" s="12">
         <v>9</v>
       </c>
-      <c r="AQ56" s="33">
+      <c r="AQ56" s="27">
         <v>15.25</v>
       </c>
-      <c r="AR56" s="33">
-        <v>10</v>
-      </c>
-      <c r="AS56" s="37">
+      <c r="AR56" s="27">
+        <v>10</v>
+      </c>
+      <c r="AS56" s="31">
         <v>0.10894868153937223</v>
       </c>
       <c r="AT56" s="12">
@@ -10103,13 +10065,13 @@
       <c r="AO57" s="12">
         <v>6</v>
       </c>
-      <c r="AQ57" s="33">
+      <c r="AQ57" s="27">
         <v>75.150000000000006</v>
       </c>
-      <c r="AR57" s="33">
+      <c r="AR57" s="27">
         <v>21.05</v>
       </c>
-      <c r="AS57" s="37">
+      <c r="AS57" s="31">
         <v>0.25495826735729044</v>
       </c>
       <c r="AT57" s="12">
@@ -10225,13 +10187,13 @@
       <c r="AO58" s="12">
         <v>4</v>
       </c>
-      <c r="AQ58" s="33">
+      <c r="AQ58" s="27">
         <v>21.4</v>
       </c>
-      <c r="AR58" s="33">
+      <c r="AR58" s="27">
         <v>7.79</v>
       </c>
-      <c r="AS58" s="37">
+      <c r="AS58" s="31">
         <v>0.1961273758157116</v>
       </c>
       <c r="AT58" s="12">
@@ -10347,13 +10309,13 @@
       <c r="AO59" s="12">
         <v>5</v>
       </c>
-      <c r="AQ59" s="33">
+      <c r="AQ59" s="27">
         <v>9.68</v>
       </c>
-      <c r="AR59" s="33">
+      <c r="AR59" s="27">
         <v>20</v>
       </c>
-      <c r="AS59" s="37">
+      <c r="AS59" s="31">
         <v>3.4586757422318148E-2</v>
       </c>
       <c r="AT59" s="12">
@@ -10469,13 +10431,13 @@
       <c r="AO60" s="12">
         <v>4</v>
       </c>
-      <c r="AQ60" s="33">
+      <c r="AQ60" s="27">
         <v>11.56</v>
       </c>
-      <c r="AR60" s="33">
+      <c r="AR60" s="27">
         <v>17.39</v>
       </c>
-      <c r="AS60" s="37">
+      <c r="AS60" s="31">
         <v>4.7493774185688266E-2</v>
       </c>
       <c r="AT60" s="12">
@@ -10591,13 +10553,13 @@
       <c r="AO61" s="12">
         <v>9</v>
       </c>
-      <c r="AQ61" s="33">
+      <c r="AQ61" s="27">
         <v>91.4</v>
       </c>
-      <c r="AR61" s="33">
+      <c r="AR61" s="27">
         <v>52.94</v>
       </c>
-      <c r="AS61" s="37">
+      <c r="AS61" s="31">
         <v>0.12332155733364285</v>
       </c>
       <c r="AT61" s="12">
@@ -10713,13 +10675,13 @@
       <c r="AO62" s="12">
         <v>5</v>
       </c>
-      <c r="AQ62" s="33">
+      <c r="AQ62" s="27">
         <v>17.559999999999999</v>
       </c>
-      <c r="AR62" s="33">
-        <v>10</v>
-      </c>
-      <c r="AS62" s="37">
+      <c r="AR62" s="27">
+        <v>10</v>
+      </c>
+      <c r="AS62" s="31">
         <v>0.1254321136314604</v>
       </c>
       <c r="AT62" s="12">
@@ -10835,13 +10797,13 @@
       <c r="AO63" s="12">
         <v>10</v>
       </c>
-      <c r="AQ63" s="33">
+      <c r="AQ63" s="27">
         <v>39.79</v>
       </c>
-      <c r="AR63" s="33">
+      <c r="AR63" s="27">
         <v>10.23</v>
       </c>
-      <c r="AS63" s="37">
+      <c r="AS63" s="31">
         <v>0.27790760835238681</v>
       </c>
       <c r="AT63" s="12">
@@ -10957,13 +10919,13 @@
       <c r="AO64" s="12">
         <v>4</v>
       </c>
-      <c r="AQ64" s="33">
+      <c r="AQ64" s="27">
         <v>8.43</v>
       </c>
-      <c r="AR64" s="33">
+      <c r="AR64" s="27">
         <v>5.41</v>
       </c>
-      <c r="AS64" s="37">
+      <c r="AS64" s="31">
         <v>0.11139344163585786</v>
       </c>
       <c r="AT64" s="12">
@@ -11079,13 +11041,13 @@
       <c r="AO65" s="12">
         <v>5</v>
       </c>
-      <c r="AQ65" s="33">
+      <c r="AQ65" s="27">
         <v>3.23</v>
       </c>
-      <c r="AR65" s="33">
+      <c r="AR65" s="27">
         <v>5.0599999999999996</v>
       </c>
-      <c r="AS65" s="37">
+      <c r="AS65" s="31">
         <v>4.5514620563620801E-2</v>
       </c>
       <c r="AT65" s="12">
@@ -11201,13 +11163,13 @@
       <c r="AO66" s="12">
         <v>4</v>
       </c>
-      <c r="AQ66" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="37">
+      <c r="AQ66" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="31">
         <v>2.5230862390876518E-2</v>
       </c>
       <c r="AT66" s="12">
@@ -11323,13 +11285,13 @@
       <c r="AO67" s="12">
         <v>4</v>
       </c>
-      <c r="AQ67" s="33">
+      <c r="AQ67" s="27">
         <v>27.26</v>
       </c>
-      <c r="AR67" s="33">
+      <c r="AR67" s="27">
         <v>7.45</v>
       </c>
-      <c r="AS67" s="37">
+      <c r="AS67" s="31">
         <v>0.26149027200551916</v>
       </c>
       <c r="AT67" s="12">
@@ -11445,13 +11407,13 @@
       <c r="AO68" s="12">
         <v>5</v>
       </c>
-      <c r="AQ68" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="37">
+      <c r="AQ68" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="31">
         <v>2.5595702331015668E-2</v>
       </c>
       <c r="AT68" s="12">
@@ -11567,13 +11529,13 @@
       <c r="AO69" s="12">
         <v>4</v>
       </c>
-      <c r="AQ69" s="33">
+      <c r="AQ69" s="27">
         <v>3.18</v>
       </c>
-      <c r="AR69" s="33">
+      <c r="AR69" s="27">
         <v>7.14</v>
       </c>
-      <c r="AS69" s="37">
+      <c r="AS69" s="31">
         <v>3.1799030129581046E-2</v>
       </c>
       <c r="AT69" s="12">
@@ -11689,13 +11651,13 @@
       <c r="AO70" s="12">
         <v>5</v>
       </c>
-      <c r="AQ70" s="33">
+      <c r="AQ70" s="27">
         <v>1.96</v>
       </c>
-      <c r="AR70" s="33">
+      <c r="AR70" s="27">
         <v>3.7</v>
       </c>
-      <c r="AS70" s="37">
+      <c r="AS70" s="31">
         <v>3.7797339067329655E-2</v>
       </c>
       <c r="AT70" s="12">
@@ -11811,13 +11773,13 @@
       <c r="AO71" s="12">
         <v>5</v>
       </c>
-      <c r="AQ71" s="33">
+      <c r="AQ71" s="27">
         <v>5.8</v>
       </c>
-      <c r="AR71" s="33">
+      <c r="AR71" s="27">
         <v>9.09</v>
       </c>
-      <c r="AS71" s="37">
+      <c r="AS71" s="31">
         <v>4.5590941494388172E-2</v>
       </c>
       <c r="AT71" s="12">
@@ -11933,13 +11895,13 @@
       <c r="AO72" s="12">
         <v>4</v>
       </c>
-      <c r="AQ72" s="33">
+      <c r="AQ72" s="27">
         <v>1.51</v>
       </c>
-      <c r="AR72" s="33">
+      <c r="AR72" s="27">
         <v>2</v>
       </c>
-      <c r="AS72" s="37">
+      <c r="AS72" s="31">
         <v>5.3856328549455185E-2</v>
       </c>
       <c r="AT72" s="12">
@@ -12055,13 +12017,13 @@
       <c r="AO73" s="12">
         <v>4</v>
       </c>
-      <c r="AQ73" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR73" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="37">
+      <c r="AQ73" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="31">
         <v>1.4446065614030017E-2</v>
       </c>
       <c r="AT73" s="12">
@@ -12177,13 +12139,13 @@
       <c r="AO74" s="12">
         <v>5</v>
       </c>
-      <c r="AQ74" s="33">
+      <c r="AQ74" s="27">
         <v>12.84</v>
       </c>
-      <c r="AR74" s="33">
+      <c r="AR74" s="27">
         <v>10.98</v>
       </c>
-      <c r="AS74" s="37">
+      <c r="AS74" s="31">
         <v>8.3532657194199181E-2</v>
       </c>
       <c r="AT74" s="12">
@@ -12299,13 +12261,13 @@
       <c r="AO75" s="12">
         <v>5</v>
       </c>
-      <c r="AQ75" s="33">
+      <c r="AQ75" s="27">
         <v>5.58</v>
       </c>
-      <c r="AR75" s="33">
+      <c r="AR75" s="27">
         <v>7.69</v>
       </c>
-      <c r="AS75" s="37">
+      <c r="AS75" s="31">
         <v>5.1808928671061127E-2</v>
       </c>
       <c r="AT75" s="12">
@@ -12421,13 +12383,13 @@
       <c r="AO76" s="12">
         <v>6</v>
       </c>
-      <c r="AQ76" s="33">
+      <c r="AQ76" s="27">
         <v>2.4900000000000002</v>
       </c>
-      <c r="AR76" s="33">
+      <c r="AR76" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS76" s="37">
+      <c r="AS76" s="31">
         <v>1.6024556742955425E-2</v>
       </c>
       <c r="AT76" s="12">
@@ -12543,13 +12505,13 @@
       <c r="AO77" s="12">
         <v>4</v>
       </c>
-      <c r="AQ77" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR77" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS77" s="37">
+      <c r="AQ77" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR77" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS77" s="31">
         <v>5.316755960901394E-2</v>
       </c>
       <c r="AT77" s="12">
@@ -12665,13 +12627,13 @@
       <c r="AO78" s="12">
         <v>6</v>
       </c>
-      <c r="AQ78" s="33">
+      <c r="AQ78" s="27">
         <v>36.57</v>
       </c>
-      <c r="AR78" s="33">
+      <c r="AR78" s="27">
         <v>15.6</v>
       </c>
-      <c r="AS78" s="37">
+      <c r="AS78" s="31">
         <v>0.16747433340605919</v>
       </c>
       <c r="AT78" s="12">
@@ -12787,13 +12749,13 @@
       <c r="AO79" s="12">
         <v>7</v>
       </c>
-      <c r="AQ79" s="33">
+      <c r="AQ79" s="27">
         <v>19.88</v>
       </c>
-      <c r="AR79" s="33">
+      <c r="AR79" s="27">
         <v>9.4499999999999993</v>
       </c>
-      <c r="AS79" s="37">
+      <c r="AS79" s="31">
         <v>0.15024891631490281</v>
       </c>
       <c r="AT79" s="12">
@@ -12909,13 +12871,13 @@
       <c r="AO80" s="12">
         <v>7</v>
       </c>
-      <c r="AQ80" s="33">
+      <c r="AQ80" s="27">
         <v>23.71</v>
       </c>
-      <c r="AR80" s="33">
+      <c r="AR80" s="27">
         <v>13.16</v>
       </c>
-      <c r="AS80" s="37">
+      <c r="AS80" s="31">
         <v>0.12871233470626492</v>
       </c>
       <c r="AT80" s="12">
@@ -13031,13 +12993,13 @@
       <c r="AO81" s="12">
         <v>3.5</v>
       </c>
-      <c r="AQ81" s="33">
+      <c r="AQ81" s="27">
         <v>7.73</v>
       </c>
-      <c r="AR81" s="33">
+      <c r="AR81" s="27">
         <v>4.17</v>
       </c>
-      <c r="AS81" s="37">
+      <c r="AS81" s="31">
         <v>0.13258716224801534</v>
       </c>
       <c r="AT81" s="12">
@@ -13153,13 +13115,13 @@
       <c r="AO82" s="12">
         <v>4</v>
       </c>
-      <c r="AQ82" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR82" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="37">
+      <c r="AQ82" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="31">
         <v>0.11537654709460878</v>
       </c>
       <c r="AT82" s="12">
@@ -13275,13 +13237,13 @@
       <c r="AO83" s="12">
         <v>5</v>
       </c>
-      <c r="AQ83" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR83" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS83" s="37">
+      <c r="AQ83" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="31">
         <v>5.0855986552606508E-2</v>
       </c>
       <c r="AT83" s="12">
@@ -13397,13 +13359,13 @@
       <c r="AO84" s="12">
         <v>7</v>
       </c>
-      <c r="AQ84" s="33">
+      <c r="AQ84" s="27">
         <v>55.56</v>
       </c>
-      <c r="AR84" s="33">
+      <c r="AR84" s="27">
         <v>63.64</v>
       </c>
-      <c r="AS84" s="37">
+      <c r="AS84" s="31">
         <v>6.2363226106380322E-2</v>
       </c>
       <c r="AT84" s="12">
@@ -13519,13 +13481,13 @@
       <c r="AO85" s="12">
         <v>6</v>
       </c>
-      <c r="AQ85" s="33">
+      <c r="AQ85" s="27">
         <v>6.26</v>
       </c>
-      <c r="AR85" s="33">
+      <c r="AR85" s="27">
         <v>5.56</v>
       </c>
-      <c r="AS85" s="37">
+      <c r="AS85" s="31">
         <v>8.0486676101493709E-2</v>
       </c>
       <c r="AT85" s="12">
@@ -13641,13 +13603,13 @@
       <c r="AO86" s="12">
         <v>4</v>
       </c>
-      <c r="AQ86" s="33">
+      <c r="AQ86" s="27">
         <v>5.54</v>
       </c>
-      <c r="AR86" s="33">
+      <c r="AR86" s="27">
         <v>7.41</v>
       </c>
-      <c r="AS86" s="37">
+      <c r="AS86" s="31">
         <v>5.3397885443736422E-2</v>
       </c>
       <c r="AT86" s="12">
@@ -13763,13 +13725,13 @@
       <c r="AO87" s="12">
         <v>4</v>
       </c>
-      <c r="AQ87" s="33">
+      <c r="AQ87" s="27">
         <v>15.06</v>
       </c>
-      <c r="AR87" s="33">
+      <c r="AR87" s="27">
         <v>7.27</v>
       </c>
-      <c r="AS87" s="37">
+      <c r="AS87" s="31">
         <v>0.1479130808950086</v>
       </c>
       <c r="AT87" s="12">
@@ -13885,13 +13847,13 @@
       <c r="AO88" s="12">
         <v>4</v>
       </c>
-      <c r="AQ88" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR88" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS88" s="37">
+      <c r="AQ88" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR88" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS88" s="31">
         <v>5.2170964249846748E-2</v>
       </c>
       <c r="AT88" s="12">
@@ -14007,13 +13969,13 @@
       <c r="AO89" s="12">
         <v>3.5</v>
       </c>
-      <c r="AQ89" s="33">
+      <c r="AQ89" s="27">
         <v>108.15</v>
       </c>
-      <c r="AR89" s="33">
+      <c r="AR89" s="27">
         <v>32.200000000000003</v>
       </c>
-      <c r="AS89" s="37">
+      <c r="AS89" s="31">
         <v>0.23987055121439546</v>
       </c>
       <c r="AT89" s="12">
@@ -14129,13 +14091,13 @@
       <c r="AO90" s="12">
         <v>5</v>
       </c>
-      <c r="AQ90" s="33">
+      <c r="AQ90" s="27">
         <v>3.41</v>
       </c>
-      <c r="AR90" s="33">
+      <c r="AR90" s="27">
         <v>1.59</v>
       </c>
-      <c r="AS90" s="37">
+      <c r="AS90" s="31">
         <v>0.15366228444596211</v>
       </c>
       <c r="AT90" s="12">
@@ -14251,13 +14213,13 @@
       <c r="AO91" s="12">
         <v>4.5</v>
       </c>
-      <c r="AQ91" s="33">
+      <c r="AQ91" s="27">
         <v>74.400000000000006</v>
       </c>
-      <c r="AR91" s="33">
+      <c r="AR91" s="27">
         <v>14.8</v>
       </c>
-      <c r="AS91" s="37">
+      <c r="AS91" s="31">
         <v>0.35914932916036019</v>
       </c>
       <c r="AT91" s="12">
@@ -14373,13 +14335,13 @@
       <c r="AO92" s="12">
         <v>10</v>
       </c>
-      <c r="AQ92" s="33">
+      <c r="AQ92" s="27">
         <v>91.01</v>
       </c>
-      <c r="AR92" s="33">
+      <c r="AR92" s="27">
         <v>36.14</v>
       </c>
-      <c r="AS92" s="37">
+      <c r="AS92" s="31">
         <v>0.17986079208092434</v>
       </c>
       <c r="AT92" s="12">
@@ -14495,13 +14457,13 @@
       <c r="AO93" s="12">
         <v>7</v>
       </c>
-      <c r="AQ93" s="33">
+      <c r="AQ93" s="27">
         <v>78</v>
       </c>
-      <c r="AR93" s="33">
+      <c r="AR93" s="27">
         <v>57.14</v>
       </c>
-      <c r="AS93" s="37">
+      <c r="AS93" s="31">
         <v>9.750390015600624E-2</v>
       </c>
       <c r="AT93" s="12">
@@ -14617,13 +14579,13 @@
       <c r="AO94" s="12">
         <v>4</v>
       </c>
-      <c r="AQ94" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR94" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS94" s="37">
+      <c r="AQ94" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR94" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS94" s="31">
         <v>2.7869126581572937E-2</v>
       </c>
       <c r="AT94" s="12">
@@ -14739,13 +14701,13 @@
       <c r="AO95" s="12">
         <v>5</v>
       </c>
-      <c r="AQ95" s="33">
+      <c r="AQ95" s="27">
         <v>36.869999999999997</v>
       </c>
-      <c r="AR95" s="33">
+      <c r="AR95" s="27">
         <v>34.78</v>
       </c>
-      <c r="AS95" s="37">
+      <c r="AS95" s="31">
         <v>7.5725150627201795E-2</v>
       </c>
       <c r="AT95" s="12">
@@ -14861,13 +14823,13 @@
       <c r="AO96" s="12">
         <v>6</v>
       </c>
-      <c r="AQ96" s="33">
+      <c r="AQ96" s="27">
         <v>12.02</v>
       </c>
-      <c r="AR96" s="33">
+      <c r="AR96" s="27">
         <v>28.95</v>
       </c>
-      <c r="AS96" s="37">
+      <c r="AS96" s="31">
         <v>2.965687001393873E-2</v>
       </c>
       <c r="AT96" s="12">
@@ -14983,13 +14945,13 @@
       <c r="AO97" s="12">
         <v>4</v>
       </c>
-      <c r="AQ97" s="33">
+      <c r="AQ97" s="27">
         <v>4.9800000000000004</v>
       </c>
-      <c r="AR97" s="33">
+      <c r="AR97" s="27">
         <v>7.32</v>
       </c>
-      <c r="AS97" s="37">
+      <c r="AS97" s="31">
         <v>4.8647365923113438E-2</v>
       </c>
       <c r="AT97" s="12">
@@ -15105,13 +15067,13 @@
       <c r="AO98" s="12">
         <v>8</v>
       </c>
-      <c r="AQ98" s="33">
+      <c r="AQ98" s="27">
         <v>19.61</v>
       </c>
-      <c r="AR98" s="33">
+      <c r="AR98" s="27">
         <v>50</v>
       </c>
-      <c r="AS98" s="37">
+      <c r="AS98" s="31">
         <v>2.8011204481792715E-2</v>
       </c>
       <c r="AT98" s="12">
@@ -15227,13 +15189,13 @@
       <c r="AO99" s="15">
         <v>4</v>
       </c>
-      <c r="AQ99" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR99" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS99" s="37">
+      <c r="AQ99" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR99" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS99" s="31">
         <v>0</v>
       </c>
       <c r="AT99" s="15">
@@ -15349,13 +15311,13 @@
       <c r="AO100" s="12">
         <v>9</v>
       </c>
-      <c r="AQ100" s="33">
+      <c r="AQ100" s="27">
         <v>54.64</v>
       </c>
-      <c r="AR100" s="33">
+      <c r="AR100" s="27">
         <v>40</v>
       </c>
-      <c r="AS100" s="37">
+      <c r="AS100" s="31">
         <v>9.7580015612802495E-2</v>
       </c>
       <c r="AT100" s="12">
@@ -15471,13 +15433,13 @@
       <c r="AO101" s="12">
         <v>10</v>
       </c>
-      <c r="AQ101" s="33">
+      <c r="AQ101" s="27">
         <v>107.32</v>
       </c>
-      <c r="AR101" s="33">
+      <c r="AR101" s="27">
         <v>34</v>
       </c>
-      <c r="AS101" s="37">
+      <c r="AS101" s="31">
         <v>0.22546897546897546</v>
       </c>
       <c r="AT101" s="12">
@@ -15593,13 +15555,13 @@
       <c r="AO102" s="12">
         <v>8</v>
       </c>
-      <c r="AQ102" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR102" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS102" s="37">
+      <c r="AQ102" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR102" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="31">
         <v>5.9031877213695391E-2</v>
       </c>
       <c r="AT102" s="12">
@@ -15715,13 +15677,13 @@
       <c r="AO103" s="15">
         <v>6</v>
       </c>
-      <c r="AQ103" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR103" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS103" s="37">
+      <c r="AQ103" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR103" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS103" s="31">
         <v>1.3702008714477543E-2</v>
       </c>
       <c r="AT103" s="15">
@@ -15837,13 +15799,13 @@
       <c r="AO104" s="12">
         <v>9</v>
       </c>
-      <c r="AQ104" s="33">
+      <c r="AQ104" s="27">
         <v>34.83</v>
       </c>
-      <c r="AR104" s="33">
+      <c r="AR104" s="27">
         <v>36.67</v>
       </c>
-      <c r="AS104" s="37">
+      <c r="AS104" s="31">
         <v>6.7852732429534934E-2</v>
       </c>
       <c r="AT104" s="12">
@@ -15959,13 +15921,13 @@
       <c r="AO105" s="12">
         <v>4</v>
       </c>
-      <c r="AQ105" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR105" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS105" s="37">
+      <c r="AQ105" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR105" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS105" s="31">
         <v>1.8275187777554415E-2</v>
       </c>
       <c r="AT105" s="12">
@@ -16081,13 +16043,13 @@
       <c r="AO106" s="12">
         <v>4</v>
       </c>
-      <c r="AQ106" s="33">
+      <c r="AQ106" s="27">
         <v>12.58</v>
       </c>
-      <c r="AR106" s="33">
+      <c r="AR106" s="27">
         <v>25</v>
       </c>
-      <c r="AS106" s="37">
+      <c r="AS106" s="31">
         <v>3.5938903863432167E-2</v>
       </c>
       <c r="AT106" s="12">
@@ -16203,13 +16165,13 @@
       <c r="AO107" s="15">
         <v>4</v>
       </c>
-      <c r="AQ107" s="33">
+      <c r="AQ107" s="27">
         <v>68.7</v>
       </c>
-      <c r="AR107" s="33">
+      <c r="AR107" s="27">
         <v>50</v>
       </c>
-      <c r="AS107" s="37">
+      <c r="AS107" s="31">
         <v>9.8149874858909553E-2</v>
       </c>
       <c r="AT107" s="15">
@@ -16325,13 +16287,13 @@
       <c r="AO108" s="12">
         <v>10</v>
       </c>
-      <c r="AQ108" s="33">
+      <c r="AQ108" s="27">
         <v>22.86</v>
       </c>
-      <c r="AR108" s="33">
+      <c r="AR108" s="27">
         <v>60</v>
       </c>
-      <c r="AS108" s="37">
+      <c r="AS108" s="31">
         <v>2.7215031406146242E-2</v>
       </c>
       <c r="AT108" s="12">
@@ -16447,13 +16409,13 @@
       <c r="AO109" s="12">
         <v>8</v>
       </c>
-      <c r="AQ109" s="33">
+      <c r="AQ109" s="27">
         <v>8.6199999999999992</v>
       </c>
-      <c r="AR109" s="33">
+      <c r="AR109" s="27">
         <v>4.3499999999999996</v>
       </c>
-      <c r="AS109" s="37">
+      <c r="AS109" s="31">
         <v>0.14162561576354679</v>
       </c>
       <c r="AT109" s="12">
@@ -16569,13 +16531,13 @@
       <c r="AO110" s="12">
         <v>8</v>
       </c>
-      <c r="AQ110" s="33">
+      <c r="AQ110" s="27">
         <v>13.63</v>
       </c>
-      <c r="AR110" s="33">
+      <c r="AR110" s="27">
         <v>20.69</v>
       </c>
-      <c r="AS110" s="37">
+      <c r="AS110" s="31">
         <v>4.7051188448122012E-2</v>
       </c>
       <c r="AT110" s="12">
@@ -16691,13 +16653,13 @@
       <c r="AO111" s="12">
         <v>7</v>
       </c>
-      <c r="AQ111" s="33">
+      <c r="AQ111" s="27">
         <v>68.09</v>
       </c>
-      <c r="AR111" s="33">
+      <c r="AR111" s="27">
         <v>14.44</v>
       </c>
-      <c r="AS111" s="37">
+      <c r="AS111" s="31">
         <v>0.33682684789653455</v>
       </c>
       <c r="AT111" s="12">
@@ -16813,13 +16775,13 @@
       <c r="AO112" s="12">
         <v>7</v>
       </c>
-      <c r="AQ112" s="33">
+      <c r="AQ112" s="27">
         <v>16.53</v>
       </c>
-      <c r="AR112" s="33">
+      <c r="AR112" s="27">
         <v>7.69</v>
       </c>
-      <c r="AS112" s="37">
+      <c r="AS112" s="31">
         <v>0.15346838551258443</v>
       </c>
       <c r="AT112" s="12">
@@ -16935,13 +16897,13 @@
       <c r="AO113" s="12">
         <v>5</v>
       </c>
-      <c r="AQ113" s="33">
+      <c r="AQ113" s="27">
         <v>21.8</v>
       </c>
-      <c r="AR113" s="33">
+      <c r="AR113" s="27">
         <v>12.73</v>
       </c>
-      <c r="AS113" s="37">
+      <c r="AS113" s="31">
         <v>0.12233966830379385</v>
       </c>
       <c r="AT113" s="12">
@@ -17057,13 +17019,13 @@
       <c r="AO114" s="12">
         <v>4</v>
       </c>
-      <c r="AQ114" s="33">
+      <c r="AQ114" s="27">
         <v>6.81</v>
       </c>
-      <c r="AR114" s="33">
+      <c r="AR114" s="27">
         <v>8.33</v>
       </c>
-      <c r="AS114" s="37">
+      <c r="AS114" s="31">
         <v>5.8396433924435012E-2</v>
       </c>
       <c r="AT114" s="12">
@@ -17179,13 +17141,13 @@
       <c r="AO115" s="12">
         <v>7</v>
       </c>
-      <c r="AQ115" s="33">
+      <c r="AQ115" s="27">
         <v>9.5</v>
       </c>
-      <c r="AR115" s="33">
+      <c r="AR115" s="27">
         <v>7.1</v>
       </c>
-      <c r="AS115" s="37">
+      <c r="AS115" s="31">
         <v>9.5475305286201587E-2</v>
       </c>
       <c r="AT115" s="12">
@@ -17301,13 +17263,13 @@
       <c r="AO116" s="12">
         <v>5</v>
       </c>
-      <c r="AQ116" s="33">
+      <c r="AQ116" s="27">
         <v>1.71</v>
       </c>
-      <c r="AR116" s="33">
+      <c r="AR116" s="27">
         <v>6.67</v>
       </c>
-      <c r="AS116" s="37">
+      <c r="AS116" s="31">
         <v>1.8306881923052513E-2</v>
       </c>
       <c r="AT116" s="12">
@@ -17423,13 +17385,13 @@
       <c r="AO117" s="12">
         <v>4</v>
       </c>
-      <c r="AQ117" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR117" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS117" s="37">
+      <c r="AQ117" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR117" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS117" s="31">
         <v>2.8054110768850958E-3</v>
       </c>
       <c r="AT117" s="12">
@@ -17545,13 +17507,13 @@
       <c r="AO118" s="12">
         <v>10</v>
       </c>
-      <c r="AQ118" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR118" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS118" s="37">
+      <c r="AQ118" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR118" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS118" s="31">
         <v>0.13276686139139671</v>
       </c>
       <c r="AT118" s="12">
@@ -17667,13 +17629,13 @@
       <c r="AO119" s="12">
         <v>8.5</v>
       </c>
-      <c r="AQ119" s="33">
+      <c r="AQ119" s="27">
         <v>94.99</v>
       </c>
-      <c r="AR119" s="33">
+      <c r="AR119" s="27">
         <v>14.16</v>
       </c>
-      <c r="AS119" s="37">
+      <c r="AS119" s="31">
         <v>0.47929385248489009</v>
       </c>
       <c r="AT119" s="12">
@@ -17789,13 +17751,13 @@
       <c r="AO120" s="12">
         <v>7</v>
       </c>
-      <c r="AQ120" s="33">
+      <c r="AQ120" s="27">
         <v>28.78</v>
       </c>
-      <c r="AR120" s="33">
+      <c r="AR120" s="27">
         <v>9.09</v>
       </c>
-      <c r="AS120" s="37">
+      <c r="AS120" s="31">
         <v>0.22609398658509014</v>
       </c>
       <c r="AT120" s="12">
@@ -17911,13 +17873,13 @@
       <c r="AO121" s="12">
         <v>8</v>
       </c>
-      <c r="AQ121" s="33">
+      <c r="AQ121" s="27">
         <v>20.93</v>
       </c>
-      <c r="AR121" s="33">
+      <c r="AR121" s="27">
         <v>14.04</v>
       </c>
-      <c r="AS121" s="37">
+      <c r="AS121" s="31">
         <v>0.10652891419002516</v>
       </c>
       <c r="AT121" s="12">
@@ -18033,13 +17995,13 @@
       <c r="AO122" s="12">
         <v>7</v>
       </c>
-      <c r="AQ122" s="33">
+      <c r="AQ122" s="27">
         <v>20.079999999999998</v>
       </c>
-      <c r="AR122" s="33">
+      <c r="AR122" s="27">
         <v>13.46</v>
       </c>
-      <c r="AS122" s="37">
+      <c r="AS122" s="31">
         <v>0.10653030787258974</v>
       </c>
       <c r="AT122" s="12">
@@ -18155,13 +18117,13 @@
       <c r="AO123" s="12">
         <v>4</v>
       </c>
-      <c r="AQ123" s="33">
+      <c r="AQ123" s="27">
         <v>11.41</v>
       </c>
-      <c r="AR123" s="33">
+      <c r="AR123" s="27">
         <v>6.25</v>
       </c>
-      <c r="AS123" s="37">
+      <c r="AS123" s="31">
         <v>0.13037384700629051</v>
       </c>
       <c r="AT123" s="12">
@@ -18277,13 +18239,13 @@
       <c r="AO124" s="12">
         <v>5</v>
       </c>
-      <c r="AQ124" s="33">
+      <c r="AQ124" s="27">
         <v>3.66</v>
       </c>
-      <c r="AR124" s="33">
+      <c r="AR124" s="27">
         <v>5.56</v>
       </c>
-      <c r="AS124" s="37">
+      <c r="AS124" s="31">
         <v>4.7083688640798538E-2</v>
       </c>
       <c r="AT124" s="12">
@@ -18399,13 +18361,13 @@
       <c r="AO125" s="12">
         <v>4</v>
       </c>
-      <c r="AQ125" s="33">
+      <c r="AQ125" s="27">
         <v>5.29</v>
       </c>
-      <c r="AR125" s="33">
+      <c r="AR125" s="27">
         <v>6.67</v>
       </c>
-      <c r="AS125" s="37">
+      <c r="AS125" s="31">
         <v>5.6701342687794844E-2</v>
       </c>
       <c r="AT125" s="12">
@@ -18521,13 +18483,13 @@
       <c r="AO126" s="12">
         <v>4</v>
       </c>
-      <c r="AQ126" s="33">
+      <c r="AQ126" s="27">
         <v>10.41</v>
       </c>
-      <c r="AR126" s="33">
+      <c r="AR126" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS126" s="37">
+      <c r="AS126" s="31">
         <v>6.6915493167184634E-2</v>
       </c>
       <c r="AT126" s="12">
@@ -18643,13 +18605,13 @@
       <c r="AO127" s="12">
         <v>9</v>
       </c>
-      <c r="AQ127" s="33">
+      <c r="AQ127" s="27">
         <v>14.8</v>
       </c>
-      <c r="AR127" s="33">
+      <c r="AR127" s="27">
         <v>14.29</v>
       </c>
-      <c r="AS127" s="37">
+      <c r="AS127" s="31">
         <v>7.4024115411820829E-2</v>
       </c>
       <c r="AT127" s="12">
@@ -18765,13 +18727,13 @@
       <c r="AO128" s="12">
         <v>8</v>
       </c>
-      <c r="AQ128" s="34">
+      <c r="AQ128" s="28">
         <v>23.1</v>
       </c>
-      <c r="AR128" s="34">
+      <c r="AR128" s="28">
         <v>7.41</v>
       </c>
-      <c r="AS128" s="37">
+      <c r="AS128" s="31">
         <v>0.22275022275022277</v>
       </c>
       <c r="AT128" s="12">
@@ -18887,13 +18849,13 @@
       <c r="AO129" s="12">
         <v>4</v>
       </c>
-      <c r="AQ129" s="33">
+      <c r="AQ129" s="27">
         <v>49.39</v>
       </c>
-      <c r="AR129" s="33">
+      <c r="AR129" s="27">
         <v>28.57</v>
       </c>
-      <c r="AS129" s="37">
+      <c r="AS129" s="31">
         <v>0.12348728081007655</v>
       </c>
       <c r="AT129" s="12">
@@ -19009,13 +18971,13 @@
       <c r="AO130" s="12">
         <v>4</v>
       </c>
-      <c r="AQ130" s="33">
+      <c r="AQ130" s="27">
         <v>15.26</v>
       </c>
-      <c r="AR130" s="33">
+      <c r="AR130" s="27">
         <v>13.16</v>
       </c>
-      <c r="AS130" s="37">
+      <c r="AS130" s="31">
         <v>8.2825843406844901E-2</v>
       </c>
       <c r="AT130" s="12">
@@ -19131,13 +19093,13 @@
       <c r="AO131" s="12">
         <v>5</v>
       </c>
-      <c r="AQ131" s="33">
+      <c r="AQ131" s="27">
         <v>17.989999999999998</v>
       </c>
-      <c r="AR131" s="33">
+      <c r="AR131" s="27">
         <v>33.33</v>
       </c>
-      <c r="AS131" s="37">
+      <c r="AS131" s="31">
         <v>3.8542906820381494E-2</v>
       </c>
       <c r="AT131" s="12">
@@ -19253,13 +19215,13 @@
       <c r="AO132" s="12">
         <v>6</v>
       </c>
-      <c r="AQ132" s="33">
+      <c r="AQ132" s="27">
         <v>61.91</v>
       </c>
-      <c r="AR132" s="33">
+      <c r="AR132" s="27">
         <v>27.45</v>
       </c>
-      <c r="AS132" s="37">
+      <c r="AS132" s="31">
         <v>0.16108501814575352</v>
       </c>
       <c r="AT132" s="12">
@@ -19375,13 +19337,13 @@
       <c r="AO133" s="12">
         <v>6</v>
       </c>
-      <c r="AQ133" s="33">
+      <c r="AQ133" s="27">
         <v>13.77</v>
       </c>
-      <c r="AR133" s="33">
+      <c r="AR133" s="27">
         <v>13.33</v>
       </c>
-      <c r="AS133" s="37">
+      <c r="AS133" s="31">
         <v>7.3779684026206535E-2</v>
       </c>
       <c r="AT133" s="12">
@@ -19497,13 +19459,13 @@
       <c r="AO134" s="12">
         <v>9</v>
       </c>
-      <c r="AQ134" s="33">
+      <c r="AQ134" s="27">
         <v>6.49</v>
       </c>
-      <c r="AR134" s="33">
+      <c r="AR134" s="27">
         <v>9.09</v>
       </c>
-      <c r="AS134" s="37">
+      <c r="AS134" s="31">
         <v>5.0974068101354984E-2</v>
       </c>
       <c r="AT134" s="12">
@@ -19619,13 +19581,13 @@
       <c r="AO135" s="12">
         <v>5</v>
       </c>
-      <c r="AQ135" s="33">
+      <c r="AQ135" s="27">
         <v>34.36</v>
       </c>
-      <c r="AR135" s="33">
+      <c r="AR135" s="27">
         <v>35.19</v>
       </c>
-      <c r="AS135" s="37">
+      <c r="AS135" s="31">
         <v>6.9762033950856533E-2</v>
       </c>
       <c r="AT135" s="12">
@@ -19741,13 +19703,13 @@
       <c r="AO136" s="12">
         <v>6</v>
       </c>
-      <c r="AQ136" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR136" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS136" s="37">
+      <c r="AQ136" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR136" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS136" s="31">
         <v>8.3934866543562192E-2</v>
       </c>
       <c r="AT136" s="12">
@@ -19863,13 +19825,13 @@
       <c r="AO137" s="12">
         <v>6</v>
       </c>
-      <c r="AQ137" s="33">
+      <c r="AQ137" s="27">
         <v>9.69</v>
       </c>
-      <c r="AR137" s="33">
+      <c r="AR137" s="27">
         <v>6</v>
       </c>
-      <c r="AS137" s="37">
+      <c r="AS137" s="31">
         <v>0.11530780264838962</v>
       </c>
       <c r="AT137" s="12">
@@ -19985,13 +19947,13 @@
       <c r="AO138" s="12">
         <v>6</v>
       </c>
-      <c r="AQ138" s="33">
+      <c r="AQ138" s="27">
         <v>14.46</v>
       </c>
-      <c r="AR138" s="33">
+      <c r="AR138" s="27">
         <v>8.9</v>
       </c>
-      <c r="AS138" s="37">
+      <c r="AS138" s="31">
         <v>0.11603140988490414</v>
       </c>
       <c r="AT138" s="12">
@@ -20107,13 +20069,13 @@
       <c r="AO139" s="12">
         <v>6</v>
       </c>
-      <c r="AQ139" s="33">
+      <c r="AQ139" s="27">
         <v>8.86</v>
       </c>
-      <c r="AR139" s="33">
+      <c r="AR139" s="27">
         <v>30.77</v>
       </c>
-      <c r="AS139" s="37">
+      <c r="AS139" s="31">
         <v>2.0560901389916935E-2</v>
       </c>
       <c r="AT139" s="12">
@@ -20229,13 +20191,13 @@
       <c r="AO140" s="12">
         <v>6</v>
       </c>
-      <c r="AQ140" s="33">
+      <c r="AQ140" s="27">
         <v>33.54</v>
       </c>
-      <c r="AR140" s="33">
+      <c r="AR140" s="27">
         <v>30.77</v>
       </c>
-      <c r="AS140" s="37">
+      <c r="AS140" s="31">
         <v>7.7864360284384621E-2</v>
       </c>
       <c r="AT140" s="12">
@@ -20351,13 +20313,13 @@
       <c r="AO141" s="12">
         <v>9</v>
       </c>
-      <c r="AQ141" s="33">
+      <c r="AQ141" s="27">
         <v>66.12</v>
       </c>
-      <c r="AR141" s="33">
+      <c r="AR141" s="27">
         <v>12.21</v>
       </c>
-      <c r="AS141" s="37">
+      <c r="AS141" s="31">
         <v>0.38667477404615308</v>
       </c>
       <c r="AT141" s="12">
@@ -20473,13 +20435,13 @@
       <c r="AO142" s="12">
         <v>8</v>
       </c>
-      <c r="AQ142" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR142" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS142" s="37">
+      <c r="AQ142" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR142" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS142" s="31">
         <v>2.4631755258879746E-2</v>
       </c>
       <c r="AT142" s="12">
@@ -20595,13 +20557,13 @@
       <c r="AO143" s="12">
         <v>7.5</v>
       </c>
-      <c r="AQ143" s="33">
+      <c r="AQ143" s="27">
         <v>37.15</v>
       </c>
-      <c r="AR143" s="33">
+      <c r="AR143" s="27">
         <v>10.92</v>
       </c>
-      <c r="AS143" s="37">
+      <c r="AS143" s="31">
         <v>0.24309407398277114</v>
       </c>
       <c r="AT143" s="12">
@@ -20717,13 +20679,13 @@
       <c r="AO144" s="12">
         <v>6</v>
       </c>
-      <c r="AQ144" s="33">
+      <c r="AQ144" s="27">
         <v>32.19</v>
       </c>
-      <c r="AR144" s="33">
+      <c r="AR144" s="27">
         <v>18.46</v>
       </c>
-      <c r="AS144" s="37">
+      <c r="AS144" s="31">
         <v>0.12453013820929493</v>
       </c>
       <c r="AT144" s="12">
@@ -20839,13 +20801,13 @@
       <c r="AO145" s="12">
         <v>4</v>
       </c>
-      <c r="AQ145" s="33">
+      <c r="AQ145" s="27">
         <v>20.59</v>
       </c>
-      <c r="AR145" s="33">
+      <c r="AR145" s="27">
         <v>7.81</v>
       </c>
-      <c r="AS145" s="37">
+      <c r="AS145" s="31">
         <v>0.1882098304347059</v>
       </c>
       <c r="AT145" s="12">
@@ -20961,13 +20923,13 @@
       <c r="AO146" s="12">
         <v>6</v>
       </c>
-      <c r="AQ146" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR146" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS146" s="37">
+      <c r="AQ146" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR146" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="31">
         <v>9.7690262404539624E-2</v>
       </c>
       <c r="AT146" s="12">
@@ -21083,13 +21045,13 @@
       <c r="AO147" s="12">
         <v>8.5</v>
       </c>
-      <c r="AQ147" s="33">
+      <c r="AQ147" s="27">
         <v>16.850000000000001</v>
       </c>
-      <c r="AR147" s="33">
+      <c r="AR147" s="27">
         <v>8</v>
       </c>
-      <c r="AS147" s="37">
+      <c r="AS147" s="31">
         <v>0.15043928270550005</v>
       </c>
       <c r="AT147" s="12">
@@ -21205,13 +21167,13 @@
       <c r="AO148" s="12">
         <v>7</v>
       </c>
-      <c r="AQ148" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR148" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS148" s="37">
+      <c r="AQ148" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR148" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS148" s="31">
         <v>9.0419665832631724E-2</v>
       </c>
       <c r="AT148" s="12">
@@ -21327,13 +21289,13 @@
       <c r="AO149" s="12">
         <v>4</v>
       </c>
-      <c r="AQ149" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR149" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS149" s="37">
+      <c r="AQ149" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR149" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS149" s="31">
         <v>0.15515582817009216</v>
       </c>
       <c r="AT149" s="12">
@@ -21449,13 +21411,13 @@
       <c r="AO150" s="12">
         <v>7</v>
       </c>
-      <c r="AQ150" s="33">
+      <c r="AQ150" s="27">
         <v>18.98</v>
       </c>
-      <c r="AR150" s="33">
+      <c r="AR150" s="27">
         <v>8.6199999999999992</v>
       </c>
-      <c r="AS150" s="37">
+      <c r="AS150" s="31">
         <v>0.15722417999457849</v>
       </c>
       <c r="AT150" s="12">
@@ -21571,13 +21533,13 @@
       <c r="AO151" s="12">
         <v>5</v>
       </c>
-      <c r="AQ151" s="33">
+      <c r="AQ151" s="27">
         <v>4.54</v>
       </c>
-      <c r="AR151" s="33">
+      <c r="AR151" s="27">
         <v>2.27</v>
       </c>
-      <c r="AS151" s="37">
+      <c r="AS151" s="31">
         <v>0.14254613311217085</v>
       </c>
       <c r="AT151" s="12">
@@ -21693,13 +21655,13 @@
       <c r="AO152" s="12">
         <v>7</v>
       </c>
-      <c r="AQ152" s="33">
+      <c r="AQ152" s="27">
         <v>10.86</v>
       </c>
-      <c r="AR152" s="33">
-        <v>10</v>
-      </c>
-      <c r="AS152" s="37">
+      <c r="AR152" s="27">
+        <v>10</v>
+      </c>
+      <c r="AS152" s="31">
         <v>7.7590353967194811E-2</v>
       </c>
       <c r="AT152" s="12">
@@ -21815,13 +21777,13 @@
       <c r="AO153" s="12">
         <v>4</v>
       </c>
-      <c r="AQ153" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR153" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS153" s="37">
+      <c r="AQ153" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR153" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS153" s="31">
         <v>0.19807286751255432</v>
       </c>
       <c r="AT153" s="12">
@@ -21937,13 +21899,13 @@
       <c r="AO154" s="12">
         <v>7</v>
       </c>
-      <c r="AQ154" s="33">
+      <c r="AQ154" s="27">
         <v>25.17</v>
       </c>
-      <c r="AR154" s="33">
+      <c r="AR154" s="27">
         <v>12.5</v>
       </c>
-      <c r="AS154" s="37">
+      <c r="AS154" s="31">
         <v>0.14384608468938237</v>
       </c>
       <c r="AT154" s="12">
@@ -22059,13 +22021,13 @@
       <c r="AO155" s="12">
         <v>5</v>
       </c>
-      <c r="AQ155" s="33">
+      <c r="AQ155" s="27">
         <v>4.41</v>
       </c>
-      <c r="AR155" s="33">
+      <c r="AR155" s="27">
         <v>5.77</v>
       </c>
-      <c r="AS155" s="37">
+      <c r="AS155" s="31">
         <v>5.462666873967871E-2</v>
       </c>
       <c r="AT155" s="12">
@@ -22181,13 +22143,13 @@
       <c r="AO156" s="12">
         <v>5</v>
       </c>
-      <c r="AQ156" s="33">
+      <c r="AQ156" s="27">
         <v>11.91</v>
       </c>
-      <c r="AR156" s="33">
+      <c r="AR156" s="27">
         <v>10.42</v>
       </c>
-      <c r="AS156" s="37">
+      <c r="AS156" s="31">
         <v>8.1663763066202086E-2</v>
       </c>
       <c r="AT156" s="12">
@@ -22303,13 +22265,13 @@
       <c r="AO157" s="12">
         <v>4</v>
       </c>
-      <c r="AQ157" s="33">
+      <c r="AQ157" s="27">
         <v>3.63</v>
       </c>
-      <c r="AR157" s="33">
+      <c r="AR157" s="27">
         <v>1.19</v>
       </c>
-      <c r="AS157" s="37">
+      <c r="AS157" s="31">
         <v>0.2176515398846447</v>
       </c>
       <c r="AT157" s="12">
@@ -22425,13 +22387,13 @@
       <c r="AO158" s="12">
         <v>8</v>
       </c>
-      <c r="AQ158" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR158" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS158" s="37">
+      <c r="AQ158" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR158" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS158" s="31">
         <v>3.0928153898493793E-2</v>
       </c>
       <c r="AT158" s="12">
@@ -22547,13 +22509,13 @@
       <c r="AO159" s="12">
         <v>4</v>
       </c>
-      <c r="AQ159" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR159" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS159" s="37">
+      <c r="AQ159" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR159" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS159" s="31">
         <v>8.524374026800631E-2</v>
       </c>
       <c r="AT159" s="12">
@@ -22669,13 +22631,13 @@
       <c r="AO160" s="12">
         <v>4</v>
       </c>
-      <c r="AQ160" s="33">
+      <c r="AQ160" s="27">
         <v>34.39</v>
       </c>
-      <c r="AR160" s="33">
+      <c r="AR160" s="27">
         <v>27.27</v>
       </c>
-      <c r="AS160" s="37">
+      <c r="AS160" s="31">
         <v>9.0063535730660907E-2</v>
       </c>
       <c r="AT160" s="12">
@@ -22791,13 +22753,13 @@
       <c r="AO161" s="12">
         <v>6</v>
       </c>
-      <c r="AQ161" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR161" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS161" s="37">
+      <c r="AQ161" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR161" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS161" s="31">
         <v>4.7698545194371569E-2</v>
       </c>
       <c r="AT161" s="12">
@@ -22913,13 +22875,13 @@
       <c r="AO162" s="12">
         <v>5</v>
       </c>
-      <c r="AQ162" s="33">
+      <c r="AQ162" s="27">
         <v>9.75</v>
       </c>
-      <c r="AR162" s="33">
+      <c r="AR162" s="27">
         <v>10.71</v>
       </c>
-      <c r="AS162" s="37">
+      <c r="AS162" s="31">
         <v>6.4985703145308035E-2</v>
       </c>
       <c r="AT162" s="12">
@@ -23035,13 +22997,13 @@
       <c r="AO163" s="15">
         <v>6</v>
       </c>
-      <c r="AQ163" s="33">
+      <c r="AQ163" s="27">
         <v>7.78</v>
       </c>
-      <c r="AR163" s="33">
+      <c r="AR163" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS163" s="37">
+      <c r="AS163" s="31">
         <v>4.9996666888874074E-2</v>
       </c>
       <c r="AT163" s="15">
@@ -23157,13 +23119,13 @@
       <c r="AO164" s="12">
         <v>7</v>
       </c>
-      <c r="AQ164" s="33">
+      <c r="AQ164" s="27">
         <v>26.75</v>
       </c>
-      <c r="AR164" s="33">
+      <c r="AR164" s="27">
         <v>9.15</v>
       </c>
-      <c r="AS164" s="37">
+      <c r="AS164" s="31">
         <v>0.20887281161253765</v>
       </c>
       <c r="AT164" s="12">
@@ -23279,13 +23241,13 @@
       <c r="AO165" s="12">
         <v>5</v>
       </c>
-      <c r="AQ165" s="33">
+      <c r="AQ165" s="27">
         <v>16.420000000000002</v>
       </c>
-      <c r="AR165" s="33">
+      <c r="AR165" s="27">
         <v>3.42</v>
       </c>
-      <c r="AS165" s="37">
+      <c r="AS165" s="31">
         <v>0.34254931771683839</v>
       </c>
       <c r="AT165" s="12">
@@ -23401,13 +23363,13 @@
       <c r="AO166" s="12">
         <v>7</v>
       </c>
-      <c r="AQ166" s="33">
+      <c r="AQ166" s="27">
         <v>18.95</v>
       </c>
-      <c r="AR166" s="33">
+      <c r="AR166" s="27">
         <v>3.03</v>
       </c>
-      <c r="AS166" s="37">
+      <c r="AS166" s="31">
         <v>0.44656953403401145</v>
       </c>
       <c r="AT166" s="12">
@@ -23523,13 +23485,13 @@
       <c r="AO167" s="12">
         <v>5.5</v>
       </c>
-      <c r="AQ167" s="33">
+      <c r="AQ167" s="27">
         <v>31</v>
       </c>
-      <c r="AR167" s="33">
+      <c r="AR167" s="27">
         <v>2.12</v>
       </c>
-      <c r="AS167" s="37">
+      <c r="AS167" s="31">
         <v>1.0461061604029447</v>
       </c>
       <c r="AT167" s="12">
@@ -23645,13 +23607,13 @@
       <c r="AO168" s="12">
         <v>7</v>
       </c>
-      <c r="AQ168" s="33">
+      <c r="AQ168" s="27">
         <v>45.82</v>
       </c>
-      <c r="AR168" s="33">
+      <c r="AR168" s="27">
         <v>8.6300000000000008</v>
       </c>
-      <c r="AS168" s="37">
+      <c r="AS168" s="31">
         <v>0.37908332742436063</v>
       </c>
       <c r="AT168" s="12">
@@ -23767,13 +23729,13 @@
       <c r="AO169" s="12">
         <v>5</v>
       </c>
-      <c r="AQ169" s="33">
+      <c r="AQ169" s="27">
         <v>14.51</v>
       </c>
-      <c r="AR169" s="33">
+      <c r="AR169" s="27">
         <v>2.57</v>
       </c>
-      <c r="AS169" s="37">
+      <c r="AS169" s="31">
         <v>0.40292176580787759</v>
       </c>
       <c r="AT169" s="12">
@@ -23889,13 +23851,13 @@
       <c r="AO170" s="12">
         <v>7</v>
       </c>
-      <c r="AQ170" s="33">
+      <c r="AQ170" s="27">
         <v>10.52</v>
       </c>
-      <c r="AR170" s="33">
+      <c r="AR170" s="27">
         <v>6.56</v>
       </c>
-      <c r="AS170" s="37">
+      <c r="AS170" s="31">
         <v>0.11464355252178227</v>
       </c>
       <c r="AT170" s="12">
@@ -24011,13 +23973,13 @@
       <c r="AO171" s="12">
         <v>4</v>
       </c>
-      <c r="AQ171" s="33">
+      <c r="AQ171" s="27">
         <v>16.850000000000001</v>
       </c>
-      <c r="AR171" s="33">
+      <c r="AR171" s="27">
         <v>4.8600000000000003</v>
       </c>
-      <c r="AS171" s="37">
+      <c r="AS171" s="31">
         <v>0.2475383684471093</v>
       </c>
       <c r="AT171" s="12">
@@ -24133,13 +24095,13 @@
       <c r="AO172" s="12">
         <v>4</v>
       </c>
-      <c r="AQ172" s="33">
+      <c r="AQ172" s="27">
         <v>25.82</v>
       </c>
-      <c r="AR172" s="33">
+      <c r="AR172" s="27">
         <v>9.24</v>
       </c>
-      <c r="AS172" s="37">
+      <c r="AS172" s="31">
         <v>0.19952583272693128</v>
       </c>
       <c r="AT172" s="12">
@@ -24255,13 +24217,13 @@
       <c r="AO173" s="12">
         <v>8</v>
       </c>
-      <c r="AQ173" s="33">
+      <c r="AQ173" s="27">
         <v>191.18</v>
       </c>
-      <c r="AR173" s="33">
+      <c r="AR173" s="27">
         <v>29.25</v>
       </c>
-      <c r="AS173" s="37">
+      <c r="AS173" s="31">
         <v>0.46694938151232868</v>
       </c>
       <c r="AT173" s="12">
@@ -24377,13 +24339,13 @@
       <c r="AO174" s="12">
         <v>10</v>
       </c>
-      <c r="AQ174" s="33">
+      <c r="AQ174" s="27">
         <v>59.28</v>
       </c>
-      <c r="AR174" s="33">
+      <c r="AR174" s="27">
         <v>22.22</v>
       </c>
-      <c r="AS174" s="37">
+      <c r="AS174" s="31">
         <v>0.19053264459310695</v>
       </c>
       <c r="AT174" s="12">
@@ -24499,13 +24461,13 @@
       <c r="AO175" s="12">
         <v>8</v>
       </c>
-      <c r="AQ175" s="33">
+      <c r="AQ175" s="27">
         <v>14.58</v>
       </c>
-      <c r="AR175" s="33">
+      <c r="AR175" s="27">
         <v>21.43</v>
       </c>
-      <c r="AS175" s="37">
+      <c r="AS175" s="31">
         <v>4.8593226104281066E-2</v>
       </c>
       <c r="AT175" s="12">
@@ -24621,13 +24583,13 @@
       <c r="AO176" s="12">
         <v>5</v>
       </c>
-      <c r="AQ176" s="33">
+      <c r="AQ176" s="27">
         <v>8.76</v>
       </c>
-      <c r="AR176" s="33">
+      <c r="AR176" s="27">
         <v>30.43</v>
       </c>
-      <c r="AS176" s="37">
+      <c r="AS176" s="31">
         <v>2.056991176402197E-2</v>
       </c>
       <c r="AT176" s="12">
@@ -24743,13 +24705,13 @@
       <c r="AO177" s="12">
         <v>6</v>
       </c>
-      <c r="AQ177" s="33">
+      <c r="AQ177" s="27">
         <v>5.77</v>
       </c>
-      <c r="AR177" s="33">
+      <c r="AR177" s="27">
         <v>23.08</v>
       </c>
-      <c r="AS177" s="37">
+      <c r="AS177" s="31">
         <v>1.7865732151446441E-2</v>
       </c>
       <c r="AT177" s="12">
@@ -24865,13 +24827,13 @@
       <c r="AO178" s="12">
         <v>7</v>
       </c>
-      <c r="AQ178" s="33">
+      <c r="AQ178" s="27">
         <v>6.03</v>
       </c>
-      <c r="AR178" s="33">
+      <c r="AR178" s="27">
         <v>35.71</v>
       </c>
-      <c r="AS178" s="37">
+      <c r="AS178" s="31">
         <v>1.206621941213379E-2</v>
       </c>
       <c r="AT178" s="12">
@@ -24987,13 +24949,13 @@
       <c r="AO179" s="12">
         <v>5</v>
       </c>
-      <c r="AQ179" s="33">
+      <c r="AQ179" s="27">
         <v>8.64</v>
       </c>
-      <c r="AR179" s="33">
+      <c r="AR179" s="27">
         <v>21.21</v>
       </c>
-      <c r="AS179" s="37">
+      <c r="AS179" s="31">
         <v>2.9098732882449938E-2</v>
       </c>
       <c r="AT179" s="12">
@@ -25109,13 +25071,13 @@
       <c r="AO180" s="12">
         <v>6</v>
       </c>
-      <c r="AQ180" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR180" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS180" s="37">
+      <c r="AQ180" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR180" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS180" s="31">
         <v>1.7020986876819119E-2</v>
       </c>
       <c r="AT180" s="12">
@@ -25231,13 +25193,13 @@
       <c r="AO181" s="12">
         <v>6</v>
       </c>
-      <c r="AQ181" s="33">
+      <c r="AQ181" s="27">
         <v>4.8099999999999996</v>
       </c>
-      <c r="AR181" s="33">
+      <c r="AR181" s="27">
         <v>15</v>
       </c>
-      <c r="AS181" s="37">
+      <c r="AS181" s="31">
         <v>2.2919851571041226E-2</v>
       </c>
       <c r="AT181" s="12">
@@ -25353,13 +25315,13 @@
       <c r="AO182" s="12">
         <v>6</v>
       </c>
-      <c r="AQ182" s="33">
+      <c r="AQ182" s="27">
         <v>9.19</v>
       </c>
-      <c r="AR182" s="33">
+      <c r="AR182" s="27">
         <v>12.12</v>
       </c>
-      <c r="AS182" s="37">
+      <c r="AS182" s="31">
         <v>5.4172248049799074E-2</v>
       </c>
       <c r="AT182" s="12">
@@ -25475,13 +25437,13 @@
       <c r="AO183" s="12">
         <v>5</v>
       </c>
-      <c r="AQ183" s="33">
+      <c r="AQ183" s="27">
         <v>27.58</v>
       </c>
-      <c r="AR183" s="33">
+      <c r="AR183" s="27">
         <v>31.25</v>
       </c>
-      <c r="AS183" s="37">
+      <c r="AS183" s="31">
         <v>6.3043752364140712E-2</v>
       </c>
       <c r="AT183" s="12">
@@ -25597,13 +25559,13 @@
       <c r="AO184" s="12">
         <v>9</v>
       </c>
-      <c r="AQ184" s="33">
+      <c r="AQ184" s="27">
         <v>3.17</v>
       </c>
-      <c r="AR184" s="33">
+      <c r="AR184" s="27">
         <v>5.88</v>
       </c>
-      <c r="AS184" s="37">
+      <c r="AS184" s="31">
         <v>3.8548752834467119E-2</v>
       </c>
       <c r="AT184" s="12">
@@ -25719,13 +25681,13 @@
       <c r="AO185" s="12">
         <v>8</v>
       </c>
-      <c r="AQ185" s="33">
+      <c r="AQ185" s="27">
         <v>7.8</v>
       </c>
-      <c r="AR185" s="33">
+      <c r="AR185" s="27">
         <v>23.53</v>
       </c>
-      <c r="AS185" s="37">
+      <c r="AS185" s="31">
         <v>2.3670748246276033E-2</v>
       </c>
       <c r="AT185" s="12">
@@ -25841,13 +25803,13 @@
       <c r="AO186" s="12">
         <v>8</v>
       </c>
-      <c r="AQ186" s="33">
+      <c r="AQ186" s="27">
         <v>5.24</v>
       </c>
-      <c r="AR186" s="33">
+      <c r="AR186" s="27">
         <v>7.69</v>
       </c>
-      <c r="AS186" s="37">
+      <c r="AS186" s="31">
         <v>4.8667265648397726E-2</v>
       </c>
       <c r="AT186" s="12">
@@ -25963,13 +25925,13 @@
       <c r="AO187" s="12">
         <v>8</v>
       </c>
-      <c r="AQ187" s="33">
+      <c r="AQ187" s="27">
         <v>16.649999999999999</v>
       </c>
-      <c r="AR187" s="33">
+      <c r="AR187" s="27">
         <v>12.5</v>
       </c>
-      <c r="AS187" s="37">
+      <c r="AS187" s="31">
         <v>9.5120075884682756E-2</v>
       </c>
       <c r="AT187" s="12">
@@ -26085,13 +26047,13 @@
       <c r="AO188" s="12">
         <v>5</v>
       </c>
-      <c r="AQ188" s="33">
+      <c r="AQ188" s="27">
         <v>3.11</v>
       </c>
-      <c r="AR188" s="33">
+      <c r="AR188" s="27">
         <v>5.56</v>
       </c>
-      <c r="AS188" s="37">
+      <c r="AS188" s="31">
         <v>4.0048414082802325E-2</v>
       </c>
       <c r="AT188" s="12">
@@ -26207,13 +26169,13 @@
       <c r="AO189" s="12">
         <v>5</v>
       </c>
-      <c r="AQ189" s="33">
+      <c r="AQ189" s="27">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AR189" s="33">
+      <c r="AR189" s="27">
         <v>5.56</v>
       </c>
-      <c r="AS189" s="37">
+      <c r="AS189" s="31">
         <v>5.6597010420138476E-2</v>
       </c>
       <c r="AT189" s="12">
@@ -26329,13 +26291,13 @@
       <c r="AO190" s="12">
         <v>4</v>
       </c>
-      <c r="AQ190" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR190" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS190" s="37">
+      <c r="AQ190" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR190" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS190" s="31">
         <v>2.840554021656384E-2</v>
       </c>
       <c r="AT190" s="12">
@@ -26451,13 +26413,13 @@
       <c r="AO191" s="12">
         <v>9</v>
       </c>
-      <c r="AQ191" s="33">
+      <c r="AQ191" s="27">
         <v>17.559999999999999</v>
       </c>
-      <c r="AR191" s="33">
+      <c r="AR191" s="27">
         <v>20.45</v>
       </c>
-      <c r="AS191" s="37">
+      <c r="AS191" s="31">
         <v>6.1320452321954676E-2</v>
       </c>
       <c r="AT191" s="12">
@@ -26573,13 +26535,13 @@
       <c r="AO192" s="12">
         <v>4</v>
       </c>
-      <c r="AQ192" s="33">
+      <c r="AQ192" s="27">
         <v>3.93</v>
       </c>
-      <c r="AR192" s="33">
+      <c r="AR192" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS192" s="37">
+      <c r="AS192" s="31">
         <v>2.5234824057198933E-2</v>
       </c>
       <c r="AT192" s="12">
@@ -26695,13 +26657,13 @@
       <c r="AO193" s="12">
         <v>6</v>
       </c>
-      <c r="AQ193" s="33">
+      <c r="AQ193" s="27">
         <v>12.82</v>
       </c>
-      <c r="AR193" s="33">
+      <c r="AR193" s="27">
         <v>42.86</v>
       </c>
-      <c r="AS193" s="37">
+      <c r="AS193" s="31">
         <v>2.1373001624348124E-2</v>
       </c>
       <c r="AT193" s="12">
@@ -26817,13 +26779,13 @@
       <c r="AO194" s="12">
         <v>5</v>
       </c>
-      <c r="AQ194" s="33">
+      <c r="AQ194" s="27">
         <v>4.34</v>
       </c>
-      <c r="AR194" s="33">
+      <c r="AR194" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS194" s="37">
+      <c r="AS194" s="31">
         <v>2.7924813989711257E-2</v>
       </c>
       <c r="AT194" s="12">
@@ -26939,13 +26901,13 @@
       <c r="AO195" s="12">
         <v>8</v>
       </c>
-      <c r="AQ195" s="33">
+      <c r="AQ195" s="27">
         <v>12.21</v>
       </c>
-      <c r="AR195" s="33">
+      <c r="AR195" s="27">
         <v>42.86</v>
       </c>
-      <c r="AS195" s="37">
+      <c r="AS195" s="31">
         <v>2.034174125305126E-2</v>
       </c>
       <c r="AT195" s="12">
@@ -27061,13 +27023,13 @@
       <c r="AO196" s="12">
         <v>6</v>
       </c>
-      <c r="AQ196" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR196" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS196" s="37">
+      <c r="AQ196" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR196" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS196" s="31">
         <v>1.5927523397531871E-2</v>
       </c>
       <c r="AT196" s="12">
@@ -27183,13 +27145,13 @@
       <c r="AO197" s="12">
         <v>6</v>
       </c>
-      <c r="AQ197" s="33">
+      <c r="AQ197" s="27">
         <v>5.61</v>
       </c>
-      <c r="AR197" s="33">
+      <c r="AR197" s="27">
         <v>25</v>
       </c>
-      <c r="AS197" s="37">
+      <c r="AS197" s="31">
         <v>1.6041451109667381E-2</v>
       </c>
       <c r="AT197" s="12">
@@ -27305,13 +27267,13 @@
       <c r="AO198" s="12">
         <v>9</v>
       </c>
-      <c r="AQ198" s="33">
+      <c r="AQ198" s="27">
         <v>3.74</v>
       </c>
-      <c r="AR198" s="33">
+      <c r="AR198" s="27">
         <v>33.33</v>
       </c>
-      <c r="AS198" s="37">
+      <c r="AS198" s="31">
         <v>8.0214761655204875E-3</v>
       </c>
       <c r="AT198" s="12">
@@ -27427,13 +27389,13 @@
       <c r="AO199" s="12">
         <v>8</v>
       </c>
-      <c r="AQ199" s="33">
+      <c r="AQ199" s="27">
         <v>21.76</v>
       </c>
-      <c r="AR199" s="33">
+      <c r="AR199" s="27">
         <v>23.08</v>
       </c>
-      <c r="AS199" s="37">
+      <c r="AS199" s="31">
         <v>6.7361003160785526E-2</v>
       </c>
       <c r="AT199" s="12">
@@ -27549,13 +27511,13 @@
       <c r="AO200" s="12">
         <v>4</v>
       </c>
-      <c r="AQ200" s="33">
+      <c r="AQ200" s="27">
         <v>49.9</v>
       </c>
-      <c r="AR200" s="33">
+      <c r="AR200" s="27">
         <v>37.5</v>
       </c>
-      <c r="AS200" s="37">
+      <c r="AS200" s="31">
         <v>9.5047999239616002E-2</v>
       </c>
       <c r="AT200" s="12">
@@ -27671,13 +27633,13 @@
       <c r="AO201" s="12">
         <v>9</v>
       </c>
-      <c r="AQ201" s="33">
+      <c r="AQ201" s="27">
         <v>7.24</v>
       </c>
-      <c r="AR201" s="33">
+      <c r="AR201" s="27">
         <v>16.670000000000002</v>
       </c>
-      <c r="AS201" s="37">
+      <c r="AS201" s="31">
         <v>3.1049150805725467E-2</v>
       </c>
       <c r="AT201" s="12">
@@ -27793,13 +27755,13 @@
       <c r="AO202" s="12">
         <v>6</v>
       </c>
-      <c r="AQ202" s="33">
+      <c r="AQ202" s="27">
         <v>2.96</v>
       </c>
-      <c r="AR202" s="33">
+      <c r="AR202" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS202" s="37">
+      <c r="AS202" s="31">
         <v>1.9039721089241287E-2</v>
       </c>
       <c r="AT202" s="12">
@@ -27915,13 +27877,13 @@
       <c r="AO203" s="12">
         <v>8.5</v>
       </c>
-      <c r="AQ203" s="33">
+      <c r="AQ203" s="27">
         <v>84.34</v>
       </c>
-      <c r="AR203" s="33">
+      <c r="AR203" s="27">
         <v>13.64</v>
       </c>
-      <c r="AS203" s="37">
+      <c r="AS203" s="31">
         <v>0.44161994375563768</v>
       </c>
       <c r="AT203" s="12">
@@ -28037,13 +27999,13 @@
       <c r="AO204" s="12">
         <v>8</v>
       </c>
-      <c r="AQ204" s="33">
+      <c r="AQ204" s="27">
         <v>39.15</v>
       </c>
-      <c r="AR204" s="33">
+      <c r="AR204" s="27">
         <v>25.9</v>
       </c>
-      <c r="AS204" s="37">
+      <c r="AS204" s="31">
         <v>0.10797324127902459</v>
       </c>
       <c r="AT204" s="12">
@@ -28159,13 +28121,13 @@
       <c r="AO205" s="12">
         <v>8</v>
       </c>
-      <c r="AQ205" s="33">
+      <c r="AQ205" s="27">
         <v>54.91</v>
       </c>
-      <c r="AR205" s="33">
+      <c r="AR205" s="27">
         <v>17.39</v>
       </c>
-      <c r="AS205" s="37">
+      <c r="AS205" s="31">
         <v>0.22551230512795373</v>
       </c>
       <c r="AT205" s="12">
@@ -28281,13 +28243,13 @@
       <c r="AO206" s="12">
         <v>6</v>
       </c>
-      <c r="AQ206" s="33">
+      <c r="AQ206" s="27">
         <v>6.14</v>
       </c>
-      <c r="AR206" s="33">
+      <c r="AR206" s="27">
         <v>14.81</v>
       </c>
-      <c r="AS206" s="37">
+      <c r="AS206" s="31">
         <v>2.9589300508935965E-2</v>
       </c>
       <c r="AT206" s="12">
@@ -28403,13 +28365,13 @@
       <c r="AO207" s="12">
         <v>7</v>
       </c>
-      <c r="AQ207" s="33">
+      <c r="AQ207" s="27">
         <v>4.0599999999999996</v>
       </c>
-      <c r="AR207" s="33">
+      <c r="AR207" s="27">
         <v>20</v>
       </c>
-      <c r="AS207" s="37">
+      <c r="AS207" s="31">
         <v>1.4488847933745396E-2</v>
       </c>
       <c r="AT207" s="12">
@@ -28525,13 +28487,13 @@
       <c r="AO208" s="12">
         <v>7</v>
       </c>
-      <c r="AQ208" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR208" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS208" s="37">
+      <c r="AQ208" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR208" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS208" s="31">
         <v>3.8807412921457327E-2</v>
       </c>
       <c r="AT208" s="12">
@@ -28647,13 +28609,13 @@
       <c r="AO209" s="12">
         <v>9</v>
       </c>
-      <c r="AQ209" s="33">
+      <c r="AQ209" s="27">
         <v>2.36</v>
       </c>
-      <c r="AR209" s="33">
+      <c r="AR209" s="27">
         <v>6.67</v>
       </c>
-      <c r="AS209" s="37">
+      <c r="AS209" s="31">
         <v>2.5284450063211127E-2</v>
       </c>
       <c r="AT209" s="12">
@@ -28769,13 +28731,13 @@
       <c r="AO210" s="12">
         <v>4</v>
       </c>
-      <c r="AQ210" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR210" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS210" s="37">
+      <c r="AQ210" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR210" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS210" s="31">
         <v>1.7408298884244097E-2</v>
       </c>
       <c r="AT210" s="12">
@@ -28891,13 +28853,13 @@
       <c r="AO211" s="12">
         <v>6</v>
       </c>
-      <c r="AQ211" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR211" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS211" s="37">
+      <c r="AQ211" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR211" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS211" s="31">
         <v>1.0507678486053685E-2</v>
       </c>
       <c r="AT211" s="12">
@@ -29013,13 +28975,13 @@
       <c r="AO212" s="15">
         <v>5</v>
       </c>
-      <c r="AQ212" s="33">
+      <c r="AQ212" s="27">
         <v>2.34</v>
       </c>
-      <c r="AR212" s="33">
+      <c r="AR212" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS212" s="37">
+      <c r="AS212" s="31">
         <v>1.5066846575975412E-2</v>
       </c>
       <c r="AT212" s="15">
@@ -29135,13 +29097,13 @@
       <c r="AO213" s="12">
         <v>5</v>
       </c>
-      <c r="AQ213" s="33">
+      <c r="AQ213" s="27">
         <v>8.58</v>
       </c>
-      <c r="AR213" s="33">
+      <c r="AR213" s="27">
         <v>7.84</v>
       </c>
-      <c r="AS213" s="37">
+      <c r="AS213" s="31">
         <v>7.8124281945937998E-2</v>
       </c>
       <c r="AT213" s="12">
@@ -29257,13 +29219,13 @@
       <c r="AO214" s="12">
         <v>5</v>
       </c>
-      <c r="AQ214" s="33">
+      <c r="AQ214" s="27">
         <v>5.0199999999999996</v>
       </c>
-      <c r="AR214" s="33">
+      <c r="AR214" s="27">
         <v>8.82</v>
       </c>
-      <c r="AS214" s="37">
+      <c r="AS214" s="31">
         <v>4.061971346376244E-2</v>
       </c>
       <c r="AT214" s="12">
@@ -29379,13 +29341,13 @@
       <c r="AO215" s="12">
         <v>4</v>
       </c>
-      <c r="AQ215" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR215" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS215" s="37">
+      <c r="AQ215" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR215" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS215" s="31">
         <v>1.4256793362037012E-2</v>
       </c>
       <c r="AT215" s="12">
@@ -29501,13 +29463,13 @@
       <c r="AO216" s="12">
         <v>9</v>
       </c>
-      <c r="AQ216" s="33">
+      <c r="AQ216" s="27">
         <v>65.849999999999994</v>
       </c>
-      <c r="AR216" s="33">
+      <c r="AR216" s="27">
         <v>48</v>
       </c>
-      <c r="AS216" s="37">
+      <c r="AS216" s="31">
         <v>9.799771077347634E-2</v>
       </c>
       <c r="AT216" s="12">
@@ -29623,13 +29585,13 @@
       <c r="AO217" s="12">
         <v>4</v>
       </c>
-      <c r="AQ217" s="33">
+      <c r="AQ217" s="27">
         <v>10.44</v>
       </c>
-      <c r="AR217" s="33">
+      <c r="AR217" s="27">
         <v>17.39</v>
       </c>
-      <c r="AS217" s="37">
+      <c r="AS217" s="31">
         <v>4.2891082757411762E-2</v>
       </c>
       <c r="AT217" s="12">
@@ -29745,13 +29707,13 @@
       <c r="AO218" s="12">
         <v>4</v>
       </c>
-      <c r="AQ218" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR218" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS218" s="37">
+      <c r="AQ218" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR218" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS218" s="31">
         <v>4.2576140330958537E-2</v>
       </c>
       <c r="AT218" s="12">
@@ -29867,13 +29829,13 @@
       <c r="AO219" s="12">
         <v>5</v>
       </c>
-      <c r="AQ219" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR219" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS219" s="37">
+      <c r="AQ219" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR219" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS219" s="31">
         <v>2.5626642596605322E-2</v>
       </c>
       <c r="AT219" s="12">
@@ -29989,13 +29951,13 @@
       <c r="AO220" s="12">
         <v>6</v>
       </c>
-      <c r="AQ220" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR220" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS220" s="37">
+      <c r="AQ220" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR220" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS220" s="31">
         <v>6.2353624865627939E-3</v>
       </c>
       <c r="AT220" s="12">
@@ -30111,13 +30073,13 @@
       <c r="AO221" s="12">
         <v>4</v>
       </c>
-      <c r="AQ221" s="33">
+      <c r="AQ221" s="27">
         <v>2.29</v>
       </c>
-      <c r="AR221" s="33">
+      <c r="AR221" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS221" s="37">
+      <c r="AS221" s="31">
         <v>1.4736993784263512E-2</v>
       </c>
       <c r="AT221" s="12">
@@ -30233,13 +30195,13 @@
       <c r="AO222" s="12">
         <v>5</v>
       </c>
-      <c r="AQ222" s="33">
+      <c r="AQ222" s="27">
         <v>14.62</v>
       </c>
-      <c r="AR222" s="33">
+      <c r="AR222" s="27">
         <v>28.57</v>
       </c>
-      <c r="AS222" s="37">
+      <c r="AS222" s="31">
         <v>3.655416108200317E-2</v>
       </c>
       <c r="AT222" s="12">
@@ -30355,13 +30317,13 @@
       <c r="AO223" s="12">
         <v>4</v>
       </c>
-      <c r="AQ223" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR223" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS223" s="37">
+      <c r="AQ223" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR223" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS223" s="31">
         <v>6.1391122843636806E-3</v>
       </c>
       <c r="AT223" s="12">
@@ -30477,13 +30439,13 @@
       <c r="AO224" s="15">
         <v>4</v>
       </c>
-      <c r="AQ224" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR224" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS224" s="37">
+      <c r="AQ224" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR224" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS224" s="31">
         <v>3.504148912312178E-3</v>
       </c>
       <c r="AT224" s="15">
@@ -30599,13 +30561,13 @@
       <c r="AO225" s="12">
         <v>4</v>
       </c>
-      <c r="AQ225" s="33">
+      <c r="AQ225" s="27">
         <v>3.31</v>
       </c>
-      <c r="AR225" s="33">
+      <c r="AR225" s="27">
         <v>16.670000000000002</v>
       </c>
-      <c r="AS225" s="37">
+      <c r="AS225" s="31">
         <v>1.4188757774256865E-2</v>
       </c>
       <c r="AT225" s="12">
@@ -30721,13 +30683,13 @@
       <c r="AO226" s="12">
         <v>9</v>
       </c>
-      <c r="AQ226" s="33">
+      <c r="AQ226" s="27">
         <v>5.47</v>
       </c>
-      <c r="AR226" s="33">
+      <c r="AR226" s="27">
         <v>8.33</v>
       </c>
-      <c r="AS226" s="37">
+      <c r="AS226" s="31">
         <v>4.6861454110921061E-2</v>
       </c>
       <c r="AT226" s="12">
@@ -30843,13 +30805,13 @@
       <c r="AO227" s="12">
         <v>5</v>
       </c>
-      <c r="AQ227" s="33">
+      <c r="AQ227" s="27">
         <v>43.42</v>
       </c>
-      <c r="AR227" s="33">
+      <c r="AR227" s="27">
         <v>18.64</v>
       </c>
-      <c r="AS227" s="37">
+      <c r="AS227" s="31">
         <v>0.16636213936071823</v>
       </c>
       <c r="AT227" s="12">
@@ -30965,13 +30927,13 @@
       <c r="AO228" s="12">
         <v>5</v>
       </c>
-      <c r="AQ228" s="33">
+      <c r="AQ228" s="27">
         <v>3.27</v>
       </c>
-      <c r="AR228" s="33">
+      <c r="AR228" s="27">
         <v>5.56</v>
       </c>
-      <c r="AS228" s="37">
+      <c r="AS228" s="31">
         <v>4.1994162811369216E-2</v>
       </c>
       <c r="AT228" s="12">
@@ -31087,13 +31049,13 @@
       <c r="AO229" s="12">
         <v>6</v>
       </c>
-      <c r="AQ229" s="33">
+      <c r="AQ229" s="27">
         <v>25.87</v>
       </c>
-      <c r="AR229" s="33">
+      <c r="AR229" s="27">
         <v>38.46</v>
       </c>
-      <c r="AS229" s="37">
+      <c r="AS229" s="31">
         <v>4.8048610409546645E-2</v>
       </c>
       <c r="AT229" s="12">
@@ -31209,13 +31171,13 @@
       <c r="AO230" s="15">
         <v>4</v>
       </c>
-      <c r="AQ230" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR230" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS230" s="37">
+      <c r="AQ230" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR230" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS230" s="31">
         <v>1.7379214459506433E-2</v>
       </c>
       <c r="AT230" s="15">
@@ -31331,13 +31293,13 @@
       <c r="AO231" s="12">
         <v>6</v>
       </c>
-      <c r="AQ231" s="33">
+      <c r="AQ231" s="27">
         <v>9.67</v>
       </c>
-      <c r="AR231" s="33">
+      <c r="AR231" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS231" s="37">
+      <c r="AS231" s="31">
         <v>6.2165858510506024E-2</v>
       </c>
       <c r="AT231" s="12">
@@ -31453,13 +31415,13 @@
       <c r="AO232" s="12">
         <v>4</v>
       </c>
-      <c r="AQ232" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR232" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS232" s="37">
+      <c r="AQ232" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR232" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS232" s="31">
         <v>2.04505250672311E-2</v>
       </c>
       <c r="AT232" s="12">
@@ -31575,13 +31537,13 @@
       <c r="AO233" s="12">
         <v>4</v>
       </c>
-      <c r="AQ233" s="33">
+      <c r="AQ233" s="27">
         <v>19.559999999999999</v>
       </c>
-      <c r="AR233" s="33">
+      <c r="AR233" s="27">
         <v>28.57</v>
       </c>
-      <c r="AS233" s="37">
+      <c r="AS233" s="31">
         <v>4.8899755501222497E-2</v>
       </c>
       <c r="AT233" s="12">
@@ -31697,13 +31659,13 @@
       <c r="AO234" s="15">
         <v>7</v>
       </c>
-      <c r="AQ234" s="33">
+      <c r="AQ234" s="27">
         <v>5.75</v>
       </c>
-      <c r="AR234" s="33">
+      <c r="AR234" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS234" s="37">
+      <c r="AS234" s="31">
         <v>3.6960682047786055E-2</v>
       </c>
       <c r="AT234" s="15">
@@ -31819,13 +31781,13 @@
       <c r="AO235" s="15">
         <v>7</v>
       </c>
-      <c r="AQ235" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR235" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS235" s="37">
+      <c r="AQ235" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR235" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS235" s="31">
         <v>2.0821621171424408E-2</v>
       </c>
       <c r="AT235" s="15">
@@ -31941,13 +31903,13 @@
       <c r="AO236" s="12">
         <v>10</v>
       </c>
-      <c r="AQ236" s="33">
+      <c r="AQ236" s="27">
         <v>31.64</v>
       </c>
-      <c r="AR236" s="33">
+      <c r="AR236" s="27">
         <v>24.41</v>
       </c>
-      <c r="AS236" s="37">
+      <c r="AS236" s="31">
         <v>9.2590162404602966E-2</v>
       </c>
       <c r="AT236" s="12">
@@ -32063,13 +32025,13 @@
       <c r="AO237" s="12">
         <v>7</v>
       </c>
-      <c r="AQ237" s="33">
+      <c r="AQ237" s="27">
         <v>3.12</v>
       </c>
-      <c r="AR237" s="33">
+      <c r="AR237" s="27">
         <v>100</v>
       </c>
-      <c r="AS237" s="37">
+      <c r="AS237" s="31">
         <v>2.2294953314367758E-3</v>
       </c>
       <c r="AT237" s="12">
@@ -32185,13 +32147,13 @@
       <c r="AO238" s="12">
         <v>9</v>
       </c>
-      <c r="AQ238" s="33">
+      <c r="AQ238" s="27">
         <v>22.57</v>
       </c>
-      <c r="AR238" s="33">
+      <c r="AR238" s="27">
         <v>42.86</v>
       </c>
-      <c r="AS238" s="37">
+      <c r="AS238" s="31">
         <v>3.7610952309312468E-2</v>
       </c>
       <c r="AT238" s="12">
@@ -32307,13 +32269,13 @@
       <c r="AO239" s="12">
         <v>6</v>
       </c>
-      <c r="AQ239" s="33">
+      <c r="AQ239" s="27">
         <v>15.28</v>
       </c>
-      <c r="AR239" s="33">
+      <c r="AR239" s="27">
         <v>31.58</v>
       </c>
-      <c r="AS239" s="37">
+      <c r="AS239" s="31">
         <v>3.4560158321904226E-2</v>
       </c>
       <c r="AT239" s="12">
@@ -32429,13 +32391,13 @@
       <c r="AO240" s="12">
         <v>6</v>
       </c>
-      <c r="AQ240" s="33">
+      <c r="AQ240" s="27">
         <v>7.87</v>
       </c>
-      <c r="AR240" s="33">
+      <c r="AR240" s="27">
         <v>10.53</v>
       </c>
-      <c r="AS240" s="37">
+      <c r="AS240" s="31">
         <v>5.3416100174867441E-2</v>
       </c>
       <c r="AT240" s="12">
@@ -32551,13 +32513,13 @@
       <c r="AO241" s="12">
         <v>6</v>
       </c>
-      <c r="AQ241" s="33">
+      <c r="AQ241" s="27">
         <v>4.03</v>
       </c>
-      <c r="AR241" s="33">
+      <c r="AR241" s="27">
         <v>23.08</v>
       </c>
-      <c r="AS241" s="37">
+      <c r="AS241" s="31">
         <v>1.2468815970826809E-2</v>
       </c>
       <c r="AT241" s="12">
@@ -32673,13 +32635,13 @@
       <c r="AO242" s="15">
         <v>4</v>
       </c>
-      <c r="AQ242" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR242" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS242" s="37">
+      <c r="AQ242" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR242" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS242" s="31">
         <v>0</v>
       </c>
       <c r="AT242" s="15">
@@ -32795,13 +32757,13 @@
       <c r="AO243" s="12">
         <v>6</v>
       </c>
-      <c r="AQ243" s="33">
+      <c r="AQ243" s="27">
         <v>6.64</v>
       </c>
-      <c r="AR243" s="33">
+      <c r="AR243" s="27">
         <v>28.57</v>
       </c>
-      <c r="AS243" s="37">
+      <c r="AS243" s="31">
         <v>1.6592553262095969E-2</v>
       </c>
       <c r="AT243" s="12">
@@ -32917,13 +32879,13 @@
       <c r="AO244" s="12">
         <v>6</v>
       </c>
-      <c r="AQ244" s="33">
+      <c r="AQ244" s="27">
         <v>10.69</v>
       </c>
-      <c r="AR244" s="33">
+      <c r="AR244" s="27">
         <v>80</v>
       </c>
-      <c r="AS244" s="37">
+      <c r="AS244" s="31">
         <v>9.5444254828524842E-3</v>
       </c>
       <c r="AT244" s="12">
@@ -33039,13 +33001,13 @@
       <c r="AO245" s="12">
         <v>5</v>
       </c>
-      <c r="AQ245" s="33">
+      <c r="AQ245" s="27">
         <v>2.16</v>
       </c>
-      <c r="AR245" s="33">
+      <c r="AR245" s="27">
         <v>16.670000000000002</v>
       </c>
-      <c r="AS245" s="37">
+      <c r="AS245" s="31">
         <v>9.2464170134073029E-3</v>
       </c>
       <c r="AT245" s="12">
@@ -33161,13 +33123,13 @@
       <c r="AO246" s="12">
         <v>8</v>
       </c>
-      <c r="AQ246" s="33">
+      <c r="AQ246" s="27">
         <v>33.69</v>
       </c>
-      <c r="AR246" s="33">
+      <c r="AR246" s="27">
         <v>25.53</v>
       </c>
-      <c r="AS246" s="37">
+      <c r="AS246" s="31">
         <v>9.4259401873957135E-2</v>
       </c>
       <c r="AT246" s="12">
@@ -33283,13 +33245,13 @@
       <c r="AO247" s="12">
         <v>9</v>
       </c>
-      <c r="AQ247" s="33">
+      <c r="AQ247" s="27">
         <v>11.44</v>
       </c>
-      <c r="AR247" s="33">
+      <c r="AR247" s="27">
         <v>20.69</v>
       </c>
-      <c r="AS247" s="37">
+      <c r="AS247" s="31">
         <v>3.9508083490116849E-2</v>
       </c>
       <c r="AT247" s="12">
@@ -33405,13 +33367,13 @@
       <c r="AO248" s="12">
         <v>10</v>
       </c>
-      <c r="AQ248" s="33">
+      <c r="AQ248" s="27">
         <v>94.76</v>
       </c>
-      <c r="AR248" s="33">
+      <c r="AR248" s="27">
         <v>47.06</v>
       </c>
-      <c r="AS248" s="37">
+      <c r="AS248" s="31">
         <v>0.14383673684269901</v>
       </c>
       <c r="AT248" s="12">
@@ -33527,13 +33489,13 @@
       <c r="AO249" s="12">
         <v>9</v>
       </c>
-      <c r="AQ249" s="33">
+      <c r="AQ249" s="27">
         <v>21.8</v>
       </c>
-      <c r="AR249" s="33">
+      <c r="AR249" s="27">
         <v>50</v>
       </c>
-      <c r="AS249" s="37">
+      <c r="AS249" s="31">
         <v>3.1143916036002365E-2</v>
       </c>
       <c r="AT249" s="12">
@@ -33649,13 +33611,13 @@
       <c r="AO250" s="12">
         <v>6</v>
       </c>
-      <c r="AQ250" s="33">
+      <c r="AQ250" s="27">
         <v>2.74</v>
       </c>
-      <c r="AR250" s="33">
+      <c r="AR250" s="27">
         <v>18.18</v>
       </c>
-      <c r="AS250" s="37">
+      <c r="AS250" s="31">
         <v>1.0769848340953818E-2</v>
       </c>
       <c r="AT250" s="12">
@@ -33771,13 +33733,13 @@
       <c r="AO251" s="12">
         <v>4</v>
       </c>
-      <c r="AQ251" s="33">
+      <c r="AQ251" s="27">
         <v>3.65</v>
       </c>
-      <c r="AR251" s="33">
+      <c r="AR251" s="27">
         <v>15.38</v>
       </c>
-      <c r="AS251" s="37">
+      <c r="AS251" s="31">
         <v>1.6930831043329906E-2</v>
       </c>
       <c r="AT251" s="12">
@@ -33893,13 +33855,13 @@
       <c r="AO252" s="12">
         <v>4</v>
       </c>
-      <c r="AQ252" s="33">
+      <c r="AQ252" s="27">
         <v>6.42</v>
       </c>
-      <c r="AR252" s="33">
+      <c r="AR252" s="27">
         <v>100</v>
       </c>
-      <c r="AS252" s="37">
+      <c r="AS252" s="31">
         <v>4.5828674084801378E-3</v>
       </c>
       <c r="AT252" s="12">
@@ -34015,13 +33977,13 @@
       <c r="AO253" s="12">
         <v>4</v>
       </c>
-      <c r="AQ253" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR253" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS253" s="37">
+      <c r="AQ253" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR253" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS253" s="31">
         <v>1.1358602437556082E-2</v>
       </c>
       <c r="AT253" s="12">
@@ -34137,13 +34099,13 @@
       <c r="AO254" s="12">
         <v>5</v>
       </c>
-      <c r="AQ254" s="33">
+      <c r="AQ254" s="27">
         <v>4.72</v>
       </c>
-      <c r="AR254" s="33">
+      <c r="AR254" s="27">
         <v>25</v>
       </c>
-      <c r="AS254" s="37">
+      <c r="AS254" s="31">
         <v>1.3495549842439456E-2</v>
       </c>
       <c r="AT254" s="12">
@@ -34259,13 +34221,13 @@
       <c r="AO255" s="12">
         <v>5</v>
       </c>
-      <c r="AQ255" s="33">
+      <c r="AQ255" s="27">
         <v>5.59</v>
       </c>
-      <c r="AR255" s="33">
+      <c r="AR255" s="27">
         <v>4.1100000000000003</v>
       </c>
-      <c r="AS255" s="37">
+      <c r="AS255" s="31">
         <v>9.7222499683693925E-2</v>
       </c>
       <c r="AT255" s="12">
@@ -34381,13 +34343,13 @@
       <c r="AO256" s="12">
         <v>7</v>
       </c>
-      <c r="AQ256" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR256" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS256" s="37">
+      <c r="AQ256" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR256" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS256" s="31">
         <v>2.9601562962524419E-2</v>
       </c>
       <c r="AT256" s="12">
@@ -34503,13 +34465,13 @@
       <c r="AO257" s="12">
         <v>9</v>
       </c>
-      <c r="AQ257" s="33">
+      <c r="AQ257" s="27">
         <v>101.33</v>
       </c>
-      <c r="AR257" s="33">
+      <c r="AR257" s="27">
         <v>36.6</v>
       </c>
-      <c r="AS257" s="37">
+      <c r="AS257" s="31">
         <v>0.19777271225905371</v>
       </c>
       <c r="AT257" s="12">
@@ -34625,13 +34587,13 @@
       <c r="AO258" s="12">
         <v>7</v>
       </c>
-      <c r="AQ258" s="33">
+      <c r="AQ258" s="27">
         <v>16.72</v>
       </c>
-      <c r="AR258" s="33">
+      <c r="AR258" s="27">
         <v>16.22</v>
       </c>
-      <c r="AS258" s="37">
+      <c r="AS258" s="31">
         <v>7.3627445127654068E-2</v>
       </c>
       <c r="AT258" s="12">
@@ -34747,13 +34709,13 @@
       <c r="AO259" s="12">
         <v>7</v>
       </c>
-      <c r="AQ259" s="33">
+      <c r="AQ259" s="27">
         <v>8.7100000000000009</v>
       </c>
-      <c r="AR259" s="33">
+      <c r="AR259" s="27">
         <v>26.67</v>
       </c>
-      <c r="AS259" s="37">
+      <c r="AS259" s="31">
         <v>2.332386902559095E-2</v>
       </c>
       <c r="AT259" s="12">
@@ -34869,13 +34831,13 @@
       <c r="AO260" s="12">
         <v>4</v>
       </c>
-      <c r="AQ260" s="33">
+      <c r="AQ260" s="27">
         <v>5.04</v>
       </c>
-      <c r="AR260" s="33">
+      <c r="AR260" s="27">
         <v>33.33</v>
       </c>
-      <c r="AS260" s="37">
+      <c r="AS260" s="31">
         <v>1.0805048118480954E-2</v>
       </c>
       <c r="AT260" s="12">
@@ -34991,13 +34953,13 @@
       <c r="AO261" s="12">
         <v>10</v>
       </c>
-      <c r="AQ261" s="33">
+      <c r="AQ261" s="27">
         <v>55.63</v>
       </c>
-      <c r="AR261" s="33">
+      <c r="AR261" s="27">
         <v>28.57</v>
       </c>
-      <c r="AS261" s="37">
+      <c r="AS261" s="31">
         <v>0.13908205841446455</v>
       </c>
       <c r="AT261" s="12">
@@ -35113,13 +35075,13 @@
       <c r="AO262" s="12">
         <v>4</v>
       </c>
-      <c r="AQ262" s="33">
+      <c r="AQ262" s="27">
         <v>97.76</v>
       </c>
-      <c r="AR262" s="33">
+      <c r="AR262" s="27">
         <v>12.35</v>
       </c>
-      <c r="AS262" s="37">
+      <c r="AS262" s="31">
         <v>0.56561875899054515</v>
       </c>
       <c r="AT262" s="12">
@@ -35235,13 +35197,13 @@
       <c r="AO263" s="12">
         <v>9</v>
       </c>
-      <c r="AQ263" s="33">
+      <c r="AQ263" s="27">
         <v>105.11</v>
       </c>
-      <c r="AR263" s="33">
+      <c r="AR263" s="27">
         <v>45.31</v>
       </c>
-      <c r="AS263" s="37">
+      <c r="AS263" s="31">
         <v>0.16568549785903269</v>
       </c>
       <c r="AT263" s="12">
@@ -35357,13 +35319,13 @@
       <c r="AO264" s="12">
         <v>7</v>
       </c>
-      <c r="AQ264" s="33">
+      <c r="AQ264" s="27">
         <v>14</v>
       </c>
-      <c r="AR264" s="33">
+      <c r="AR264" s="27">
         <v>27.27</v>
       </c>
-      <c r="AS264" s="37">
+      <c r="AS264" s="31">
         <v>3.6663081831998644E-2</v>
       </c>
       <c r="AT264" s="12">
@@ -35479,13 +35441,13 @@
       <c r="AO265" s="12">
         <v>8</v>
       </c>
-      <c r="AQ265" s="33">
+      <c r="AQ265" s="27">
         <v>38.82</v>
       </c>
-      <c r="AR265" s="33">
+      <c r="AR265" s="27">
         <v>17.3</v>
       </c>
-      <c r="AS265" s="37">
+      <c r="AS265" s="31">
         <v>0.16031739657296862</v>
       </c>
       <c r="AT265" s="12">
@@ -35601,13 +35563,13 @@
       <c r="AO266" s="12">
         <v>8</v>
       </c>
-      <c r="AQ266" s="33">
+      <c r="AQ266" s="27">
         <v>25.73</v>
       </c>
-      <c r="AR266" s="33">
+      <c r="AR266" s="27">
         <v>20</v>
       </c>
-      <c r="AS266" s="37">
+      <c r="AS266" s="31">
         <v>9.1886615999705962E-2</v>
       </c>
       <c r="AT266" s="12">
@@ -35723,13 +35685,13 @@
       <c r="AO267" s="12">
         <v>4</v>
       </c>
-      <c r="AQ267" s="33">
+      <c r="AQ267" s="27">
         <v>8.83</v>
       </c>
-      <c r="AR267" s="33">
+      <c r="AR267" s="27">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AS267" s="37">
+      <c r="AS267" s="31">
         <v>0.15220946905014088</v>
       </c>
       <c r="AT267" s="12">
@@ -35845,13 +35807,13 @@
       <c r="AO268" s="12">
         <v>7</v>
       </c>
-      <c r="AQ268" s="33">
+      <c r="AQ268" s="27">
         <v>2.4300000000000002</v>
       </c>
-      <c r="AR268" s="33">
+      <c r="AR268" s="27">
         <v>4.55</v>
       </c>
-      <c r="AS268" s="37">
+      <c r="AS268" s="31">
         <v>3.8119264783343959E-2</v>
       </c>
       <c r="AT268" s="12">
@@ -35967,13 +35929,13 @@
       <c r="AO269" s="12">
         <v>5</v>
       </c>
-      <c r="AQ269" s="33">
+      <c r="AQ269" s="27">
         <v>16.77</v>
       </c>
-      <c r="AR269" s="33">
+      <c r="AR269" s="27">
         <v>17.39</v>
       </c>
-      <c r="AS269" s="37">
+      <c r="AS269" s="31">
         <v>6.8859801444259489E-2</v>
       </c>
       <c r="AT269" s="12">
@@ -36089,13 +36051,13 @@
       <c r="AO270" s="12">
         <v>5</v>
       </c>
-      <c r="AQ270" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR270" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS270" s="37">
+      <c r="AQ270" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR270" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS270" s="31">
         <v>9.2684749223586993E-2</v>
       </c>
       <c r="AT270" s="12">
@@ -36211,13 +36173,13 @@
       <c r="AO271" s="12">
         <v>6</v>
       </c>
-      <c r="AQ271" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR271" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS271" s="37">
+      <c r="AQ271" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR271" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS271" s="31">
         <v>4.4767646958754669E-3</v>
       </c>
       <c r="AT271" s="12">
@@ -36333,13 +36295,13 @@
       <c r="AO272" s="12">
         <v>4</v>
       </c>
-      <c r="AQ272" s="33">
+      <c r="AQ272" s="27">
         <v>12.33</v>
       </c>
-      <c r="AR272" s="33">
+      <c r="AR272" s="27">
         <v>15</v>
       </c>
-      <c r="AS272" s="37">
+      <c r="AS272" s="31">
         <v>5.8730941809382854E-2</v>
       </c>
       <c r="AT272" s="12">
@@ -36455,13 +36417,13 @@
       <c r="AO273" s="12">
         <v>6</v>
       </c>
-      <c r="AQ273" s="33">
+      <c r="AQ273" s="27">
         <v>6.03</v>
       </c>
-      <c r="AR273" s="33">
+      <c r="AR273" s="27">
         <v>7.69</v>
       </c>
-      <c r="AS273" s="37">
+      <c r="AS273" s="31">
         <v>5.5965008954401436E-2</v>
       </c>
       <c r="AT273" s="12">
@@ -36577,13 +36539,13 @@
       <c r="AO274" s="12">
         <v>9</v>
       </c>
-      <c r="AQ274" s="33">
+      <c r="AQ274" s="27">
         <v>1.66</v>
       </c>
-      <c r="AR274" s="33">
+      <c r="AR274" s="27">
         <v>4</v>
       </c>
-      <c r="AS274" s="37">
+      <c r="AS274" s="31">
         <v>2.958684923725103E-2</v>
       </c>
       <c r="AT274" s="12">
@@ -36699,13 +36661,13 @@
       <c r="AO275" s="12">
         <v>4</v>
       </c>
-      <c r="AQ275" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR275" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS275" s="37">
+      <c r="AQ275" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR275" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS275" s="31">
         <v>0.17484236867698966</v>
       </c>
       <c r="AT275" s="12">
@@ -36821,13 +36783,13 @@
       <c r="AO276" s="12">
         <v>5</v>
       </c>
-      <c r="AQ276" s="33">
+      <c r="AQ276" s="27">
         <v>1.45</v>
       </c>
-      <c r="AR276" s="33">
+      <c r="AR276" s="27">
         <v>6.67</v>
       </c>
-      <c r="AS276" s="37">
+      <c r="AS276" s="31">
         <v>1.5503908018414508E-2</v>
       </c>
       <c r="AT276" s="12">
@@ -36943,13 +36905,13 @@
       <c r="AO277" s="12">
         <v>7</v>
       </c>
-      <c r="AQ277" s="33">
+      <c r="AQ277" s="27">
         <v>2.87</v>
       </c>
-      <c r="AR277" s="33">
+      <c r="AR277" s="27">
         <v>3.8</v>
       </c>
-      <c r="AS277" s="37">
+      <c r="AS277" s="31">
         <v>5.4035863397337326E-2</v>
       </c>
       <c r="AT277" s="12">
@@ -37065,13 +37027,13 @@
       <c r="AO278" s="12">
         <v>5</v>
       </c>
-      <c r="AQ278" s="33">
+      <c r="AQ278" s="27">
         <v>17.309999999999999</v>
       </c>
-      <c r="AR278" s="33">
+      <c r="AR278" s="27">
         <v>8.77</v>
       </c>
-      <c r="AS278" s="37">
+      <c r="AS278" s="31">
         <v>0.14092864560154278</v>
       </c>
       <c r="AT278" s="12">
@@ -37187,13 +37149,13 @@
       <c r="AO279" s="12">
         <v>6</v>
       </c>
-      <c r="AQ279" s="33">
+      <c r="AQ279" s="27">
         <v>3.94</v>
       </c>
-      <c r="AR279" s="33">
+      <c r="AR279" s="27">
         <v>14.29</v>
       </c>
-      <c r="AS279" s="37">
+      <c r="AS279" s="31">
         <v>1.9724643970176339E-2</v>
       </c>
       <c r="AT279" s="12">
@@ -37309,13 +37271,13 @@
       <c r="AO280" s="12">
         <v>4</v>
       </c>
-      <c r="AQ280" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR280" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS280" s="37">
+      <c r="AQ280" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR280" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS280" s="31">
         <v>7.9685592526128907E-3</v>
       </c>
       <c r="AT280" s="12">
@@ -37431,13 +37393,13 @@
       <c r="AO281" s="12">
         <v>5</v>
       </c>
-      <c r="AQ281" s="33">
+      <c r="AQ281" s="27">
         <v>5.08</v>
       </c>
-      <c r="AR281" s="33">
+      <c r="AR281" s="27">
         <v>8</v>
       </c>
-      <c r="AS281" s="37">
+      <c r="AS281" s="31">
         <v>4.5380286803412599E-2</v>
       </c>
       <c r="AT281" s="12">
@@ -37553,13 +37515,13 @@
       <c r="AO282" s="12">
         <v>9</v>
       </c>
-      <c r="AQ282" s="33">
+      <c r="AQ282" s="27">
         <v>97.52</v>
       </c>
-      <c r="AR282" s="33">
+      <c r="AR282" s="27">
         <v>17</v>
       </c>
-      <c r="AS282" s="37">
+      <c r="AS282" s="31">
         <v>0.4096606947978067</v>
       </c>
       <c r="AT282" s="12">
@@ -37675,13 +37637,13 @@
       <c r="AO283" s="12">
         <v>7</v>
       </c>
-      <c r="AQ283" s="33">
+      <c r="AQ283" s="27">
         <v>140.79</v>
       </c>
-      <c r="AR283" s="33">
+      <c r="AR283" s="27">
         <v>31.25</v>
       </c>
-      <c r="AS283" s="37">
+      <c r="AS283" s="31">
         <v>0.32179561955712876</v>
       </c>
       <c r="AT283" s="12">
@@ -37797,13 +37759,13 @@
       <c r="AO284" s="12">
         <v>9.5</v>
       </c>
-      <c r="AQ284" s="33">
+      <c r="AQ284" s="27">
         <v>131.58000000000001</v>
       </c>
-      <c r="AR284" s="33">
+      <c r="AR284" s="27">
         <v>20.6</v>
       </c>
-      <c r="AS284" s="37">
+      <c r="AS284" s="31">
         <v>0.4563125045971782</v>
       </c>
       <c r="AT284" s="12">
@@ -37919,13 +37881,13 @@
       <c r="AO285" s="12">
         <v>9</v>
       </c>
-      <c r="AQ285" s="33">
+      <c r="AQ285" s="27">
         <v>54.56</v>
       </c>
-      <c r="AR285" s="33">
+      <c r="AR285" s="27">
         <v>30.16</v>
       </c>
-      <c r="AS285" s="37">
+      <c r="AS285" s="31">
         <v>0.12922493754128017</v>
       </c>
       <c r="AT285" s="12">
@@ -38041,13 +38003,13 @@
       <c r="AO286" s="12">
         <v>8</v>
       </c>
-      <c r="AQ286" s="33">
+      <c r="AQ286" s="27">
         <v>11.99</v>
       </c>
-      <c r="AR286" s="33">
+      <c r="AR286" s="27">
         <v>9.52</v>
       </c>
-      <c r="AS286" s="37">
+      <c r="AS286" s="31">
         <v>8.9955022488755629E-2</v>
       </c>
       <c r="AT286" s="12">
@@ -38163,13 +38125,13 @@
       <c r="AO287" s="12">
         <v>4</v>
       </c>
-      <c r="AQ287" s="33">
+      <c r="AQ287" s="27">
         <v>36.72</v>
       </c>
-      <c r="AR287" s="33">
+      <c r="AR287" s="27">
         <v>9.68</v>
       </c>
-      <c r="AS287" s="37">
+      <c r="AS287" s="31">
         <v>0.27104299091568812</v>
       </c>
       <c r="AT287" s="12">
@@ -38285,13 +38247,13 @@
       <c r="AO288" s="12">
         <v>5</v>
       </c>
-      <c r="AQ288" s="33">
+      <c r="AQ288" s="27">
         <v>68.09</v>
       </c>
-      <c r="AR288" s="33">
+      <c r="AR288" s="27">
         <v>17.39</v>
       </c>
-      <c r="AS288" s="37">
+      <c r="AS288" s="31">
         <v>0.27964715823773661</v>
       </c>
       <c r="AT288" s="12">
@@ -38407,13 +38369,13 @@
       <c r="AO289" s="12">
         <v>5</v>
       </c>
-      <c r="AQ289" s="33">
+      <c r="AQ289" s="27">
         <v>43.83</v>
       </c>
-      <c r="AR289" s="33">
+      <c r="AR289" s="27">
         <v>19.399999999999999</v>
       </c>
-      <c r="AS289" s="37">
+      <c r="AS289" s="31">
         <v>0.16135791111346592</v>
       </c>
       <c r="AT289" s="12">
@@ -38529,13 +38491,13 @@
       <c r="AO290" s="12">
         <v>5</v>
       </c>
-      <c r="AQ290" s="33">
+      <c r="AQ290" s="27">
         <v>5.25</v>
       </c>
-      <c r="AR290" s="33">
+      <c r="AR290" s="27">
         <v>5.88</v>
       </c>
-      <c r="AS290" s="37">
+      <c r="AS290" s="31">
         <v>6.3802317900678557E-2</v>
       </c>
       <c r="AT290" s="12">
@@ -38651,13 +38613,13 @@
       <c r="AO291" s="12">
         <v>6</v>
       </c>
-      <c r="AQ291" s="33">
+      <c r="AQ291" s="27">
         <v>7.22</v>
       </c>
-      <c r="AR291" s="33">
+      <c r="AR291" s="27">
         <v>11.11</v>
       </c>
-      <c r="AS291" s="37">
+      <c r="AS291" s="31">
         <v>4.6390317825221905E-2</v>
       </c>
       <c r="AT291" s="12">
@@ -38773,13 +38735,13 @@
       <c r="AO292" s="12">
         <v>5</v>
       </c>
-      <c r="AQ292" s="33">
+      <c r="AQ292" s="27">
         <v>49.97</v>
       </c>
-      <c r="AR292" s="33">
+      <c r="AR292" s="27">
         <v>16.850000000000001</v>
       </c>
-      <c r="AS292" s="37">
+      <c r="AS292" s="31">
         <v>0.21178475054611912</v>
       </c>
       <c r="AT292" s="12">
@@ -38895,13 +38857,13 @@
       <c r="AO293" s="12">
         <v>8</v>
       </c>
-      <c r="AQ293" s="33">
+      <c r="AQ293" s="27">
         <v>14.95</v>
       </c>
-      <c r="AR293" s="33">
+      <c r="AR293" s="27">
         <v>11.76</v>
       </c>
-      <c r="AS293" s="37">
+      <c r="AS293" s="31">
         <v>9.0776857668294963E-2</v>
       </c>
       <c r="AT293" s="12">
@@ -39017,13 +38979,13 @@
       <c r="AO294" s="12">
         <v>10</v>
       </c>
-      <c r="AQ294" s="33">
+      <c r="AQ294" s="27">
         <v>34.29</v>
       </c>
-      <c r="AR294" s="33">
+      <c r="AR294" s="27">
         <v>22.81</v>
       </c>
-      <c r="AS294" s="37">
+      <c r="AS294" s="31">
         <v>0.1073830560840979</v>
       </c>
       <c r="AT294" s="12">
@@ -39139,13 +39101,13 @@
       <c r="AO295" s="12">
         <v>5</v>
       </c>
-      <c r="AQ295" s="33">
+      <c r="AQ295" s="27">
         <v>45.98</v>
       </c>
-      <c r="AR295" s="33">
+      <c r="AR295" s="27">
         <v>16.28</v>
       </c>
-      <c r="AS295" s="37">
+      <c r="AS295" s="31">
         <v>0.20173586676049732</v>
       </c>
       <c r="AT295" s="12">
@@ -39261,13 +39223,13 @@
       <c r="AO296" s="12">
         <v>9</v>
       </c>
-      <c r="AQ296" s="33">
+      <c r="AQ296" s="27">
         <v>100.23</v>
       </c>
-      <c r="AR296" s="33">
+      <c r="AR296" s="27">
         <v>26.07</v>
       </c>
-      <c r="AS296" s="37">
+      <c r="AS296" s="31">
         <v>0.27464267166143197</v>
       </c>
       <c r="AT296" s="12">
@@ -39383,13 +39345,13 @@
       <c r="AO297" s="12">
         <v>5</v>
       </c>
-      <c r="AQ297" s="33">
+      <c r="AQ297" s="27">
         <v>7.56</v>
       </c>
-      <c r="AR297" s="33">
+      <c r="AR297" s="27">
         <v>7.79</v>
       </c>
-      <c r="AS297" s="37">
+      <c r="AS297" s="31">
         <v>6.9304435483870969E-2</v>
       </c>
       <c r="AT297" s="12">
@@ -39505,13 +39467,13 @@
       <c r="AO298" s="12">
         <v>5</v>
       </c>
-      <c r="AQ298" s="33">
+      <c r="AQ298" s="27">
         <v>9.83</v>
       </c>
-      <c r="AR298" s="33">
+      <c r="AR298" s="27">
         <v>8.89</v>
       </c>
-      <c r="AS298" s="37">
+      <c r="AS298" s="31">
         <v>7.8989634804588427E-2</v>
       </c>
       <c r="AT298" s="12">
@@ -39627,13 +39589,13 @@
       <c r="AO299" s="12">
         <v>8</v>
       </c>
-      <c r="AQ299" s="33">
+      <c r="AQ299" s="27">
         <v>22.61</v>
       </c>
-      <c r="AR299" s="33">
+      <c r="AR299" s="27">
         <v>22.86</v>
       </c>
-      <c r="AS299" s="37">
+      <c r="AS299" s="31">
         <v>7.0650740419759592E-2</v>
       </c>
       <c r="AT299" s="12">
@@ -39749,13 +39711,13 @@
       <c r="AO300" s="12">
         <v>8</v>
       </c>
-      <c r="AQ300" s="33">
+      <c r="AQ300" s="27">
         <v>15.66</v>
       </c>
-      <c r="AR300" s="33">
+      <c r="AR300" s="27">
         <v>25.64</v>
       </c>
-      <c r="AS300" s="37">
+      <c r="AS300" s="31">
         <v>4.3635191894147739E-2</v>
       </c>
       <c r="AT300" s="12">
@@ -39871,13 +39833,13 @@
       <c r="AO301" s="12">
         <v>6</v>
       </c>
-      <c r="AQ301" s="33">
+      <c r="AQ301" s="27">
         <v>77.59</v>
       </c>
-      <c r="AR301" s="33">
+      <c r="AR301" s="27">
         <v>24.76</v>
       </c>
-      <c r="AS301" s="37">
+      <c r="AS301" s="31">
         <v>0.22385951185586053</v>
       </c>
       <c r="AT301" s="12">
@@ -39993,13 +39955,13 @@
       <c r="AO302" s="12">
         <v>5</v>
       </c>
-      <c r="AQ302" s="33">
+      <c r="AQ302" s="27">
         <v>36.840000000000003</v>
       </c>
-      <c r="AR302" s="33">
+      <c r="AR302" s="27">
         <v>17.39</v>
       </c>
-      <c r="AS302" s="37">
+      <c r="AS302" s="31">
         <v>0.15128991093628724</v>
       </c>
       <c r="AT302" s="12">
@@ -40115,13 +40077,13 @@
       <c r="AO303" s="12">
         <v>8</v>
       </c>
-      <c r="AQ303" s="33">
+      <c r="AQ303" s="27">
         <v>60.79</v>
       </c>
-      <c r="AR303" s="33">
+      <c r="AR303" s="27">
         <v>18.670000000000002</v>
       </c>
-      <c r="AS303" s="37">
+      <c r="AS303" s="31">
         <v>0.23261584268965943</v>
       </c>
       <c r="AT303" s="12">
@@ -40237,13 +40199,13 @@
       <c r="AO304" s="12">
         <v>10</v>
       </c>
-      <c r="AQ304" s="33">
+      <c r="AQ304" s="27">
         <v>40.479999999999997</v>
       </c>
-      <c r="AR304" s="33">
+      <c r="AR304" s="27">
         <v>29.85</v>
       </c>
-      <c r="AS304" s="37">
+      <c r="AS304" s="31">
         <v>9.6857200682337302E-2</v>
       </c>
       <c r="AT304" s="12">
@@ -40359,13 +40321,13 @@
       <c r="AO305" s="12">
         <v>9</v>
       </c>
-      <c r="AQ305" s="33">
+      <c r="AQ305" s="27">
         <v>19.97</v>
       </c>
-      <c r="AR305" s="33">
+      <c r="AR305" s="27">
         <v>8.89</v>
       </c>
-      <c r="AS305" s="37">
+      <c r="AS305" s="31">
         <v>0.16045755362848016</v>
       </c>
       <c r="AT305" s="12">
@@ -40481,13 +40443,13 @@
       <c r="AO306" s="12">
         <v>9</v>
       </c>
-      <c r="AQ306" s="33">
+      <c r="AQ306" s="27">
         <v>15.3</v>
       </c>
-      <c r="AR306" s="33">
-        <v>10</v>
-      </c>
-      <c r="AS306" s="37">
+      <c r="AR306" s="27">
+        <v>10</v>
+      </c>
+      <c r="AS306" s="31">
         <v>0.10929320086997388</v>
       </c>
       <c r="AT306" s="12">
@@ -40603,13 +40565,13 @@
       <c r="AO307" s="12">
         <v>7</v>
       </c>
-      <c r="AQ307" s="33">
+      <c r="AQ307" s="27">
         <v>124.65</v>
       </c>
-      <c r="AR307" s="33">
+      <c r="AR307" s="27">
         <v>18.37</v>
       </c>
-      <c r="AS307" s="37">
+      <c r="AS307" s="31">
         <v>0.48476454293628807</v>
       </c>
       <c r="AT307" s="12">
@@ -40725,13 +40687,13 @@
       <c r="AO308" s="12">
         <v>8</v>
       </c>
-      <c r="AQ308" s="33">
+      <c r="AQ308" s="27">
         <v>53.02</v>
       </c>
-      <c r="AR308" s="33">
+      <c r="AR308" s="27">
         <v>40</v>
       </c>
-      <c r="AS308" s="37">
+      <c r="AS308" s="31">
         <v>9.4682623844871999E-2</v>
       </c>
       <c r="AT308" s="12">
@@ -40847,13 +40809,13 @@
       <c r="AO309" s="12">
         <v>5</v>
       </c>
-      <c r="AQ309" s="33">
+      <c r="AQ309" s="27">
         <v>2.61</v>
       </c>
-      <c r="AR309" s="33">
+      <c r="AR309" s="27">
         <v>14.29</v>
       </c>
-      <c r="AS309" s="37">
+      <c r="AS309" s="31">
         <v>1.306506401881369E-2</v>
       </c>
       <c r="AT309" s="12">
@@ -40969,13 +40931,13 @@
       <c r="AO310" s="12">
         <v>4</v>
       </c>
-      <c r="AQ310" s="33">
+      <c r="AQ310" s="27">
         <v>108.8</v>
       </c>
-      <c r="AR310" s="33">
+      <c r="AR310" s="27">
         <v>4.38</v>
       </c>
-      <c r="AS310" s="37">
+      <c r="AS310" s="31">
         <v>1.7755511980486873</v>
       </c>
       <c r="AT310" s="12">
@@ -41091,13 +41053,13 @@
       <c r="AO311" s="12">
         <v>5</v>
       </c>
-      <c r="AQ311" s="33">
+      <c r="AQ311" s="27">
         <v>14.94</v>
       </c>
-      <c r="AR311" s="33">
+      <c r="AR311" s="27">
         <v>11.76</v>
       </c>
-      <c r="AS311" s="37">
+      <c r="AS311" s="31">
         <v>9.0726667235932035E-2</v>
       </c>
       <c r="AT311" s="12">
@@ -41213,13 +41175,13 @@
       <c r="AO312" s="12">
         <v>8</v>
       </c>
-      <c r="AQ312" s="33">
+      <c r="AQ312" s="27">
         <v>29.06</v>
       </c>
-      <c r="AR312" s="33">
+      <c r="AR312" s="27">
         <v>14.29</v>
       </c>
-      <c r="AS312" s="37">
+      <c r="AS312" s="31">
         <v>0.14528176115678465</v>
       </c>
       <c r="AT312" s="12">
@@ -41335,13 +41297,13 @@
       <c r="AO313" s="12">
         <v>7</v>
       </c>
-      <c r="AQ313" s="33">
+      <c r="AQ313" s="27">
         <v>44.01</v>
       </c>
-      <c r="AR313" s="33">
+      <c r="AR313" s="27">
         <v>23.53</v>
       </c>
-      <c r="AS313" s="37">
+      <c r="AS313" s="31">
         <v>0.13361418511066397</v>
       </c>
       <c r="AT313" s="12">
@@ -41457,13 +41419,13 @@
       <c r="AO314" s="12">
         <v>10</v>
       </c>
-      <c r="AQ314" s="33">
+      <c r="AQ314" s="27">
         <v>11.06</v>
       </c>
-      <c r="AR314" s="33">
-        <v>10</v>
-      </c>
-      <c r="AS314" s="37">
+      <c r="AR314" s="27">
+        <v>10</v>
+      </c>
+      <c r="AS314" s="31">
         <v>7.8992061297839575E-2</v>
       </c>
       <c r="AT314" s="12">
@@ -41579,13 +41541,13 @@
       <c r="AO315" s="12">
         <v>8</v>
       </c>
-      <c r="AQ315" s="33">
+      <c r="AQ315" s="27">
         <v>6.84</v>
       </c>
-      <c r="AR315" s="33">
+      <c r="AR315" s="27">
         <v>7.46</v>
       </c>
-      <c r="AS315" s="37">
+      <c r="AS315" s="31">
         <v>6.5474317454671249E-2</v>
       </c>
       <c r="AT315" s="12">
@@ -41701,13 +41663,13 @@
       <c r="AO316" s="12">
         <v>5</v>
       </c>
-      <c r="AQ316" s="33">
+      <c r="AQ316" s="27">
         <v>1.64</v>
       </c>
-      <c r="AR316" s="33">
+      <c r="AR316" s="27">
         <v>1.85</v>
       </c>
-      <c r="AS316" s="37">
+      <c r="AS316" s="31">
         <v>6.3389805041132924E-2</v>
       </c>
       <c r="AT316" s="12">
@@ -41823,13 +41785,13 @@
       <c r="AO317" s="12">
         <v>7</v>
       </c>
-      <c r="AQ317" s="33">
+      <c r="AQ317" s="27">
         <v>13.66</v>
       </c>
-      <c r="AR317" s="33">
+      <c r="AR317" s="27">
         <v>13.33</v>
       </c>
-      <c r="AS317" s="37">
+      <c r="AS317" s="31">
         <v>7.3177514013493927E-2</v>
       </c>
       <c r="AT317" s="12">
@@ -41945,13 +41907,13 @@
       <c r="AO318" s="12">
         <v>10</v>
       </c>
-      <c r="AQ318" s="33">
+      <c r="AQ318" s="27">
         <v>125.62</v>
       </c>
-      <c r="AR318" s="33">
+      <c r="AR318" s="27">
         <v>28.34</v>
       </c>
-      <c r="AS318" s="37">
+      <c r="AS318" s="31">
         <v>0.31661714449791184</v>
       </c>
       <c r="AT318" s="12">
@@ -42067,13 +42029,13 @@
       <c r="AO319" s="12">
         <v>9</v>
       </c>
-      <c r="AQ319" s="33">
+      <c r="AQ319" s="27">
         <v>23.98</v>
       </c>
-      <c r="AR319" s="33">
+      <c r="AR319" s="27">
         <v>11.54</v>
       </c>
-      <c r="AS319" s="37">
+      <c r="AS319" s="31">
         <v>0.14846453410687163</v>
       </c>
       <c r="AT319" s="12">
@@ -42189,13 +42151,13 @@
       <c r="AO320" s="12">
         <v>9</v>
       </c>
-      <c r="AQ320" s="33">
+      <c r="AQ320" s="27">
         <v>68.08</v>
       </c>
-      <c r="AR320" s="33">
+      <c r="AR320" s="27">
         <v>31.25</v>
       </c>
-      <c r="AS320" s="37">
+      <c r="AS320" s="31">
         <v>0.15561250540996605</v>
       </c>
       <c r="AT320" s="12">
@@ -42311,13 +42273,13 @@
       <c r="AO321" s="12">
         <v>5</v>
       </c>
-      <c r="AQ321" s="33">
+      <c r="AQ321" s="27">
         <v>22.86</v>
       </c>
-      <c r="AR321" s="33">
+      <c r="AR321" s="27">
         <v>18.75</v>
       </c>
-      <c r="AS321" s="37">
+      <c r="AS321" s="31">
         <v>8.7081464710236423E-2</v>
       </c>
       <c r="AT321" s="12">
@@ -42433,13 +42395,13 @@
       <c r="AO322" s="12">
         <v>9</v>
       </c>
-      <c r="AQ322" s="33">
+      <c r="AQ322" s="27">
         <v>209.09</v>
       </c>
-      <c r="AR322" s="33">
+      <c r="AR322" s="27">
         <v>17.25</v>
       </c>
-      <c r="AS322" s="37">
+      <c r="AS322" s="31">
         <v>0.86561614191228009</v>
       </c>
       <c r="AT322" s="12">
@@ -42555,13 +42517,13 @@
       <c r="AO323" s="12">
         <v>8</v>
       </c>
-      <c r="AQ323" s="33">
+      <c r="AQ323" s="27">
         <v>23.87</v>
       </c>
-      <c r="AR323" s="33">
+      <c r="AR323" s="27">
         <v>12.57</v>
       </c>
-      <c r="AS323" s="37">
+      <c r="AS323" s="31">
         <v>0.13564161515063797</v>
       </c>
       <c r="AT323" s="12">
@@ -42677,13 +42639,13 @@
       <c r="AO324" s="12">
         <v>5</v>
       </c>
-      <c r="AQ324" s="33">
+      <c r="AQ324" s="27">
         <v>7.89</v>
       </c>
-      <c r="AR324" s="33">
+      <c r="AR324" s="27">
         <v>21.43</v>
       </c>
-      <c r="AS324" s="37">
+      <c r="AS324" s="31">
         <v>2.6308866087871613E-2</v>
       </c>
       <c r="AT324" s="12">
@@ -42799,13 +42761,13 @@
       <c r="AO325" s="12">
         <v>5</v>
       </c>
-      <c r="AQ325" s="33">
+      <c r="AQ325" s="27">
         <v>3.82</v>
       </c>
-      <c r="AR325" s="33">
+      <c r="AR325" s="27">
         <v>3.23</v>
       </c>
-      <c r="AS325" s="37">
+      <c r="AS325" s="31">
         <v>8.4611605436978002E-2</v>
       </c>
       <c r="AT325" s="12">
@@ -42921,13 +42883,13 @@
       <c r="AO326" s="15">
         <v>6</v>
       </c>
-      <c r="AQ326" s="33">
+      <c r="AQ326" s="27">
         <v>12.29</v>
       </c>
-      <c r="AR326" s="33">
+      <c r="AR326" s="27">
         <v>5.88</v>
       </c>
-      <c r="AS326" s="37">
+      <c r="AS326" s="31">
         <v>0.14919347761220228</v>
       </c>
       <c r="AT326" s="15">
@@ -43043,13 +43005,13 @@
       <c r="AO327" s="12">
         <v>4</v>
       </c>
-      <c r="AQ327" s="33">
+      <c r="AQ327" s="27">
         <v>9.34</v>
       </c>
-      <c r="AR327" s="33">
+      <c r="AR327" s="27">
         <v>18.18</v>
       </c>
-      <c r="AS327" s="37">
+      <c r="AS327" s="31">
         <v>3.6688190405037624E-2</v>
       </c>
       <c r="AT327" s="12">
@@ -43165,13 +43127,13 @@
       <c r="AO328" s="12">
         <v>7</v>
       </c>
-      <c r="AQ328" s="33">
+      <c r="AQ328" s="27">
         <v>7.12</v>
       </c>
-      <c r="AR328" s="33">
+      <c r="AR328" s="27">
         <v>8.33</v>
       </c>
-      <c r="AS328" s="37">
+      <c r="AS328" s="31">
         <v>6.1013122905851667E-2</v>
       </c>
       <c r="AT328" s="12">
@@ -43287,13 +43249,13 @@
       <c r="AO329" s="12">
         <v>9</v>
       </c>
-      <c r="AQ329" s="33">
+      <c r="AQ329" s="27">
         <v>10.9</v>
       </c>
-      <c r="AR329" s="33">
+      <c r="AR329" s="27">
         <v>15.15</v>
       </c>
-      <c r="AS329" s="37">
+      <c r="AS329" s="31">
         <v>5.1387461459403906E-2</v>
       </c>
       <c r="AT329" s="12">
@@ -43409,13 +43371,13 @@
       <c r="AO330" s="12">
         <v>7</v>
       </c>
-      <c r="AQ330" s="33">
+      <c r="AQ330" s="27">
         <v>20.77</v>
       </c>
-      <c r="AR330" s="33">
+      <c r="AR330" s="27">
         <v>13.71</v>
       </c>
-      <c r="AS330" s="37">
+      <c r="AS330" s="31">
         <v>0.10823502712422151</v>
       </c>
       <c r="AT330" s="12">
@@ -43531,13 +43493,13 @@
       <c r="AO331" s="12">
         <v>6</v>
       </c>
-      <c r="AQ331" s="33">
+      <c r="AQ331" s="27">
         <v>43.67</v>
       </c>
-      <c r="AR331" s="33">
+      <c r="AR331" s="27">
         <v>25</v>
       </c>
-      <c r="AS331" s="37">
+      <c r="AS331" s="31">
         <v>0.12477101682707305</v>
       </c>
       <c r="AT331" s="12">
@@ -43653,13 +43615,13 @@
       <c r="AO332" s="12">
         <v>10</v>
       </c>
-      <c r="AQ332" s="33">
+      <c r="AQ332" s="27">
         <v>103.86</v>
       </c>
-      <c r="AR332" s="33">
+      <c r="AR332" s="27">
         <v>52.46</v>
       </c>
-      <c r="AS332" s="37">
+      <c r="AS332" s="31">
         <v>0.14141058214795718</v>
       </c>
       <c r="AT332" s="12">
@@ -43775,13 +43737,13 @@
       <c r="AO333" s="12">
         <v>7</v>
       </c>
-      <c r="AQ333" s="33">
+      <c r="AQ333" s="27">
         <v>17.32</v>
       </c>
-      <c r="AR333" s="33">
+      <c r="AR333" s="27">
         <v>12.5</v>
       </c>
-      <c r="AS333" s="37">
+      <c r="AS333" s="31">
         <v>9.896580731357317E-2</v>
       </c>
       <c r="AT333" s="12">
@@ -43897,13 +43859,13 @@
       <c r="AO334" s="12">
         <v>9.5</v>
       </c>
-      <c r="AQ334" s="33">
+      <c r="AQ334" s="27">
         <v>96.58</v>
       </c>
-      <c r="AR334" s="33">
+      <c r="AR334" s="27">
         <v>28.57</v>
       </c>
-      <c r="AS334" s="37">
+      <c r="AS334" s="31">
         <v>0.24145257871354067</v>
       </c>
       <c r="AT334" s="12">
@@ -44019,13 +43981,13 @@
       <c r="AO335" s="12">
         <v>6</v>
       </c>
-      <c r="AQ335" s="33">
+      <c r="AQ335" s="27">
         <v>16.82</v>
       </c>
-      <c r="AR335" s="33">
+      <c r="AR335" s="27">
         <v>18.75</v>
       </c>
-      <c r="AS335" s="37">
+      <c r="AS335" s="31">
         <v>6.408664514423501E-2</v>
       </c>
       <c r="AT335" s="12">
@@ -44141,13 +44103,13 @@
       <c r="AO336" s="12">
         <v>7</v>
       </c>
-      <c r="AQ336" s="33">
+      <c r="AQ336" s="27">
         <v>15.37</v>
       </c>
-      <c r="AR336" s="33">
+      <c r="AR336" s="27">
         <v>12.5</v>
       </c>
-      <c r="AS336" s="37">
+      <c r="AS336" s="31">
         <v>8.7849016823086726E-2</v>
       </c>
       <c r="AT336" s="12">
@@ -44263,13 +44225,13 @@
       <c r="AO337" s="12">
         <v>10</v>
       </c>
-      <c r="AQ337" s="33">
+      <c r="AQ337" s="27">
         <v>44.74</v>
       </c>
-      <c r="AR337" s="33">
+      <c r="AR337" s="27">
         <v>30</v>
       </c>
-      <c r="AS337" s="37">
+      <c r="AS337" s="31">
         <v>0.10651442205274594</v>
       </c>
       <c r="AT337" s="12">
@@ -44385,13 +44347,13 @@
       <c r="AO338" s="12">
         <v>3</v>
       </c>
-      <c r="AQ338" s="33">
+      <c r="AQ338" s="27">
         <v>12.09</v>
       </c>
-      <c r="AR338" s="33">
+      <c r="AR338" s="27">
         <v>3.33</v>
       </c>
-      <c r="AS338" s="37">
+      <c r="AS338" s="31">
         <v>0.25904946117712074</v>
       </c>
       <c r="AT338" s="12">
@@ -44507,13 +44469,13 @@
       <c r="AO339" s="12">
         <v>5</v>
       </c>
-      <c r="AQ339" s="33">
+      <c r="AQ339" s="27">
         <v>19.34</v>
       </c>
-      <c r="AR339" s="33">
+      <c r="AR339" s="27">
         <v>4.88</v>
       </c>
-      <c r="AS339" s="37">
+      <c r="AS339" s="31">
         <v>0.28322741088698539</v>
       </c>
       <c r="AT339" s="12">
@@ -44629,13 +44591,13 @@
       <c r="AO340" s="12">
         <v>6</v>
       </c>
-      <c r="AQ340" s="33">
+      <c r="AQ340" s="27">
         <v>5.55</v>
       </c>
-      <c r="AR340" s="33">
-        <v>10</v>
-      </c>
-      <c r="AS340" s="37">
+      <c r="AR340" s="27">
+        <v>10</v>
+      </c>
+      <c r="AS340" s="31">
         <v>3.9630799472117749E-2</v>
       </c>
       <c r="AT340" s="12">
@@ -44751,13 +44713,13 @@
       <c r="AO341" s="12">
         <v>8</v>
       </c>
-      <c r="AQ341" s="33">
+      <c r="AQ341" s="27">
         <v>42.05</v>
       </c>
-      <c r="AR341" s="33">
+      <c r="AR341" s="27">
         <v>39.39</v>
       </c>
-      <c r="AS341" s="37">
+      <c r="AS341" s="31">
         <v>7.6253327417923691E-2</v>
       </c>
       <c r="AT341" s="12">
@@ -44873,13 +44835,13 @@
       <c r="AO342" s="12">
         <v>4</v>
       </c>
-      <c r="AQ342" s="33">
+      <c r="AQ342" s="27">
         <v>20.6</v>
       </c>
-      <c r="AR342" s="33">
+      <c r="AR342" s="27">
         <v>16.670000000000002</v>
       </c>
-      <c r="AS342" s="37">
+      <c r="AS342" s="31">
         <v>8.8301520257840438E-2</v>
       </c>
       <c r="AT342" s="12">
@@ -44995,13 +44957,13 @@
       <c r="AO343" s="12">
         <v>5</v>
       </c>
-      <c r="AQ343" s="33">
+      <c r="AQ343" s="27">
         <v>3.97</v>
       </c>
-      <c r="AR343" s="33">
+      <c r="AR343" s="27">
         <v>6.67</v>
       </c>
-      <c r="AS343" s="37">
+      <c r="AS343" s="31">
         <v>4.2560918861864278E-2</v>
       </c>
       <c r="AT343" s="12">
@@ -45117,13 +45079,13 @@
       <c r="AO344" s="12">
         <v>4</v>
       </c>
-      <c r="AQ344" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR344" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS344" s="37">
+      <c r="AQ344" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR344" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS344" s="31">
         <v>3.8760190700138246E-2</v>
       </c>
       <c r="AT344" s="12">
@@ -45239,13 +45201,13 @@
       <c r="AO345" s="12">
         <v>4</v>
       </c>
-      <c r="AQ345" s="33">
+      <c r="AQ345" s="27">
         <v>7.25</v>
       </c>
-      <c r="AR345" s="33">
+      <c r="AR345" s="27">
         <v>5.56</v>
       </c>
-      <c r="AS345" s="37">
+      <c r="AS345" s="31">
         <v>9.3262315806926274E-2</v>
       </c>
       <c r="AT345" s="12">
@@ -45361,13 +45323,13 @@
       <c r="AO346" s="12">
         <v>5</v>
       </c>
-      <c r="AQ346" s="33">
+      <c r="AQ346" s="27">
         <v>21.45</v>
       </c>
-      <c r="AR346" s="33">
+      <c r="AR346" s="27">
         <v>19.23</v>
       </c>
-      <c r="AS346" s="37">
+      <c r="AS346" s="31">
         <v>7.9668090478437523E-2</v>
       </c>
       <c r="AT346" s="12">
@@ -45377,164 +45339,164 @@
   </sheetData>
   <autoFilter ref="AB5:AE346"/>
   <mergeCells count="17">
-    <mergeCell ref="AQ4:AT4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="AQ4:AT4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <conditionalFormatting sqref="K7:K346">
-    <cfRule type="cellIs" dxfId="39" priority="49" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="between">
       <formula>0.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="50" operator="between">
       <formula>2.5001</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="51" operator="between">
       <formula>5.0001</formula>
       <formula>7.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="between">
       <formula>7.501</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:P346">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="between">
       <formula>0.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="between">
       <formula>2.5001</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="between">
       <formula>5.0001</formula>
       <formula>7.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="between">
       <formula>7.501</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:U346">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="between">
       <formula>0.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="between">
       <formula>2.5001</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="between">
       <formula>5.0001</formula>
       <formula>7.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="between">
       <formula>7.501</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:Z346">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="between">
       <formula>0.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="between">
       <formula>2.5001</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="between">
       <formula>5.0001</formula>
       <formula>7.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="between">
       <formula>7.501</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7:AE346">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="between">
       <formula>0.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="between">
       <formula>2.5001</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="between">
       <formula>5.0001</formula>
       <formula>7.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="between">
       <formula>7.501</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="between">
       <formula>0.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="between">
       <formula>2.5001</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="between">
       <formula>5.0001</formula>
       <formula>7.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="between">
       <formula>7.501</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7:AJ346">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="between">
       <formula>0.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
       <formula>2.5001</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
       <formula>5.0001</formula>
       <formula>7.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="between">
       <formula>7.501</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AO346">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="between">
       <formula>0.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
       <formula>2.5001</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="between">
       <formula>5.0001</formula>
       <formula>7.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="between">
       <formula>7.501</formula>
       <formula>10</formula>
     </cfRule>
